--- a/additional_files/ECT_PC2_with_FPKM_values.xlsx
+++ b/additional_files/ECT_PC2_with_FPKM_values.xlsx
@@ -457,1298 +457,1298 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ENSMUSG00000050917</t>
+          <t>ENSMUSG00000078249</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fgf4</t>
+          <t>Hmga1b</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>chr7:144847366-144865243</t>
+          <t>chr11:120762793-120764419</t>
         </is>
       </c>
       <c r="D2">
-        <v>1.34839</v>
+        <v>49.7301</v>
       </c>
       <c r="E2">
-        <v>0.424386</v>
+        <v>18.9495</v>
       </c>
       <c r="F2">
-        <v>62.6956</v>
+        <v>29.3796</v>
       </c>
       <c r="G2">
-        <v>26.2583</v>
+        <v>0.275477</v>
       </c>
       <c r="H2">
-        <v>0.605711</v>
+        <v>27.9142</v>
       </c>
       <c r="I2">
-        <v>8.735049999999999</v>
+        <v>0.245566</v>
       </c>
       <c r="J2">
-        <v>0.53807</v>
+        <v>36.1647</v>
       </c>
       <c r="K2">
-        <v>0.279486</v>
+        <v>36.2486</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>64.8837</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>22.2637</v>
       </c>
       <c r="N2">
-        <v>0.222695</v>
+        <v>24.8472</v>
       </c>
       <c r="O2">
-        <v>0.241761</v>
+        <v>0.260458</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>18.6844</v>
       </c>
       <c r="Q2">
-        <v>0.0807266</v>
+        <v>0.150431</v>
       </c>
       <c r="R2">
-        <v>0.0120793</v>
+        <v>13.9334</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>20.1276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028681</t>
+          <t>ENSMUSG00000054146</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ptch2</t>
+          <t>Krt15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>chr4:117096074-117115383</t>
+          <t>chr11:100131757-100135928</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.524454</v>
+        <v>3.65502</v>
       </c>
       <c r="E3">
-        <v>0.259588</v>
+        <v>3.31654</v>
       </c>
       <c r="F3">
-        <v>10.041</v>
+        <v>1.39682</v>
       </c>
       <c r="G3">
-        <v>17.1601</v>
+        <v>1.74559</v>
       </c>
       <c r="H3">
-        <v>6.37908</v>
+        <v>2.07614</v>
       </c>
       <c r="I3">
-        <v>24.6806</v>
+        <v>2.04678</v>
       </c>
       <c r="J3">
-        <v>0.7694800000000001</v>
+        <v>52.071</v>
       </c>
       <c r="K3">
-        <v>1.27548</v>
+        <v>9.26545</v>
       </c>
       <c r="L3">
-        <v>0.669465</v>
+        <v>0.660432</v>
       </c>
       <c r="M3">
-        <v>0.527069</v>
+        <v>0.383952</v>
       </c>
       <c r="N3">
-        <v>5.85146</v>
+        <v>0.330768</v>
       </c>
       <c r="O3">
-        <v>6.64099</v>
+        <v>0.427063</v>
       </c>
       <c r="P3">
-        <v>1.60947</v>
+        <v>0.296331</v>
       </c>
       <c r="Q3">
-        <v>5.65174</v>
+        <v>0.143883</v>
       </c>
       <c r="R3">
-        <v>1.17769</v>
+        <v>0.150707</v>
       </c>
       <c r="S3">
-        <v>1.42763</v>
+        <v>0.136293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ENSMUSG00000078249</t>
+          <t>ENSMUSG00000019929</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hmga1b</t>
+          <t>Dcn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>chr11:120762793-120764419</t>
+          <t>chr10:97479608-97518143</t>
         </is>
       </c>
       <c r="D4">
-        <v>49.7301</v>
+        <v>0.242085</v>
       </c>
       <c r="E4">
-        <v>18.9495</v>
+        <v>0.140663</v>
       </c>
       <c r="F4">
-        <v>29.3796</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.275477</v>
+        <v>0.0955473</v>
       </c>
       <c r="H4">
-        <v>27.9142</v>
+        <v>0.642445</v>
       </c>
       <c r="I4">
-        <v>0.245566</v>
+        <v>0.356914</v>
       </c>
       <c r="J4">
-        <v>36.1647</v>
+        <v>11.4448</v>
       </c>
       <c r="K4">
-        <v>36.2486</v>
+        <v>5.20244</v>
       </c>
       <c r="L4">
-        <v>64.8837</v>
+        <v>0.103007</v>
       </c>
       <c r="M4">
-        <v>22.2637</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>24.8472</v>
+        <v>0.223898</v>
       </c>
       <c r="O4">
-        <v>0.260458</v>
+        <v>0.103243</v>
       </c>
       <c r="P4">
-        <v>18.6844</v>
+        <v>0.176341</v>
       </c>
       <c r="Q4">
-        <v>0.150431</v>
+        <v>0.104352</v>
       </c>
       <c r="R4">
-        <v>13.9334</v>
+        <v>0.499664</v>
       </c>
       <c r="S4">
-        <v>20.1276</v>
+        <v>0.263593</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031906</t>
+          <t>ENSMUSG00000028364</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Smpd3</t>
+          <t>Tnc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>chr8:106252547-106337988</t>
+          <t>chr4:63959784-64047015</t>
         </is>
       </c>
       <c r="D5">
-        <v>4.60664</v>
+        <v>3.9912</v>
       </c>
       <c r="E5">
-        <v>2.16164</v>
+        <v>3.03305</v>
       </c>
       <c r="F5">
-        <v>31.3193</v>
+        <v>0.210224</v>
       </c>
       <c r="G5">
-        <v>24.4119</v>
+        <v>0.236484</v>
       </c>
       <c r="H5">
-        <v>5.03843</v>
+        <v>1.43568</v>
       </c>
       <c r="I5">
-        <v>14.7569</v>
+        <v>0.267132</v>
       </c>
       <c r="J5">
-        <v>1.48299</v>
+        <v>4.09103</v>
       </c>
       <c r="K5">
-        <v>0.943129</v>
+        <v>0.747363</v>
       </c>
       <c r="L5">
-        <v>0.189951</v>
+        <v>4.84397</v>
       </c>
       <c r="M5">
-        <v>0.180741</v>
+        <v>4.2408</v>
       </c>
       <c r="N5">
-        <v>0.23484</v>
+        <v>0.293224</v>
       </c>
       <c r="O5">
-        <v>0.270302</v>
+        <v>0.550343</v>
       </c>
       <c r="P5">
-        <v>0.227052</v>
+        <v>0.94975</v>
       </c>
       <c r="Q5">
-        <v>0.142542</v>
+        <v>0.806133</v>
       </c>
       <c r="R5">
-        <v>0.104357</v>
+        <v>29.0142</v>
       </c>
       <c r="S5">
-        <v>0.156023</v>
+        <v>5.47723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ENSMUSG00000064294</t>
+          <t>ENSMUSG00000031613</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aox3</t>
+          <t>Hpgd</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>chr1:58113135-58200698</t>
+          <t>chr8:56294584-56321043</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.23065</v>
+        <v>0.151724</v>
       </c>
       <c r="E6">
-        <v>0.0536878</v>
+        <v>0.176318</v>
       </c>
       <c r="F6">
-        <v>10.9383</v>
+        <v>0.290486</v>
       </c>
       <c r="G6">
-        <v>20.6887</v>
+        <v>0.166342</v>
       </c>
       <c r="H6">
-        <v>4.83533</v>
+        <v>4.21519</v>
       </c>
       <c r="I6">
-        <v>14.6513</v>
+        <v>1.32181</v>
       </c>
       <c r="J6">
-        <v>1.76604</v>
+        <v>11.4485</v>
       </c>
       <c r="K6">
-        <v>4.12147</v>
+        <v>13.787</v>
       </c>
       <c r="L6">
-        <v>0.00786306</v>
+        <v>0.516467</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.357997</v>
       </c>
       <c r="N6">
-        <v>0.0671446</v>
+        <v>0.701628</v>
       </c>
       <c r="O6">
-        <v>0.09194629999999999</v>
+        <v>1.40198</v>
       </c>
       <c r="P6">
-        <v>0.158212</v>
+        <v>2.44065</v>
       </c>
       <c r="Q6">
-        <v>0.0655515</v>
+        <v>1.74404</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.892</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2.78782</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025407</t>
+          <t>ENSMUSG00000047414</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gli1</t>
+          <t>Flrt2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>chr10:127329881-127341974</t>
+          <t>chr12:95692225-95785215</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.305053</v>
+        <v>2.19562</v>
       </c>
       <c r="E7">
-        <v>0.182859</v>
+        <v>2.08473</v>
       </c>
       <c r="F7">
-        <v>5.81968</v>
+        <v>1.75449</v>
       </c>
       <c r="G7">
-        <v>12.2123</v>
+        <v>1.31173</v>
       </c>
       <c r="H7">
-        <v>7.22751</v>
+        <v>2.23607</v>
       </c>
       <c r="I7">
-        <v>14.1718</v>
+        <v>1.56685</v>
       </c>
       <c r="J7">
-        <v>0.536633</v>
+        <v>17.282</v>
       </c>
       <c r="K7">
-        <v>1.28025</v>
+        <v>7.95534</v>
       </c>
       <c r="L7">
-        <v>0.705241</v>
+        <v>5.44739</v>
       </c>
       <c r="M7">
-        <v>0.668299</v>
+        <v>7.25557</v>
       </c>
       <c r="N7">
-        <v>9.655469999999999</v>
+        <v>3.83166</v>
       </c>
       <c r="O7">
-        <v>18.6634</v>
+        <v>4.26639</v>
       </c>
       <c r="P7">
-        <v>12.0866</v>
+        <v>4.15057</v>
       </c>
       <c r="Q7">
-        <v>18.5722</v>
+        <v>5.9179</v>
       </c>
       <c r="R7">
-        <v>4.20404</v>
+        <v>9.212479999999999</v>
       </c>
       <c r="S7">
-        <v>4.00502</v>
+        <v>6.96146</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025219</t>
+          <t>ENSMUSG00000071192</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fgf8</t>
+          <t>Wfikkn1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>chr19:45736797-45742915</t>
+          <t>chr17:25877629-25880305</t>
         </is>
       </c>
       <c r="D8">
-        <v>279.809</v>
+        <v>14.5227</v>
       </c>
       <c r="E8">
-        <v>164.964</v>
+        <v>14.7109</v>
       </c>
       <c r="F8">
-        <v>1179.7</v>
+        <v>0.493766</v>
       </c>
       <c r="G8">
-        <v>769.556</v>
+        <v>0.36743</v>
       </c>
       <c r="H8">
-        <v>153.809</v>
+        <v>0.267254</v>
       </c>
       <c r="I8">
-        <v>346.789</v>
+        <v>0.305951</v>
       </c>
       <c r="J8">
-        <v>49.1851</v>
+        <v>0.0561132</v>
       </c>
       <c r="K8">
-        <v>60.9514</v>
+        <v>0.227991</v>
       </c>
       <c r="L8">
-        <v>0.722456</v>
+        <v>8.446429999999999</v>
       </c>
       <c r="M8">
-        <v>0.159388</v>
+        <v>5.9799</v>
       </c>
       <c r="N8">
-        <v>6.80512</v>
+        <v>0.22708</v>
       </c>
       <c r="O8">
-        <v>3.13541</v>
+        <v>0.213783</v>
       </c>
       <c r="P8">
-        <v>3.33805</v>
+        <v>0.312999</v>
       </c>
       <c r="Q8">
-        <v>1.67492</v>
+        <v>0.453099</v>
       </c>
       <c r="R8">
-        <v>0.232383</v>
+        <v>0.0554271</v>
       </c>
       <c r="S8">
-        <v>0.0548465</v>
+        <v>0.233921</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001473</t>
+          <t>ENSMUSG00000005917</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tubb6</t>
+          <t>Otx1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>chr18:67390716-67402748</t>
+          <t>chr11:21994763-22002897</t>
         </is>
       </c>
       <c r="D9">
-        <v>57.6974</v>
+        <v>0.1261</v>
       </c>
       <c r="E9">
-        <v>41.0408</v>
+        <v>0.0709322</v>
       </c>
       <c r="F9">
-        <v>155.503</v>
+        <v>0.5759570000000001</v>
       </c>
       <c r="G9">
-        <v>100.191</v>
+        <v>1.22463</v>
       </c>
       <c r="H9">
-        <v>14.6842</v>
+        <v>10.5045</v>
       </c>
       <c r="I9">
-        <v>34.0235</v>
+        <v>5.73016</v>
       </c>
       <c r="J9">
-        <v>4.11236</v>
+        <v>33.2825</v>
       </c>
       <c r="K9">
-        <v>4.04865</v>
+        <v>29.0884</v>
       </c>
       <c r="L9">
-        <v>62.1898</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>42.9792</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>24.8189</v>
+        <v>0.0100808</v>
       </c>
       <c r="O9">
-        <v>19.2142</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>20.6437</v>
+        <v>0.404499</v>
       </c>
       <c r="Q9">
-        <v>17.6456</v>
+        <v>0.1739</v>
       </c>
       <c r="R9">
-        <v>13.9569</v>
+        <v>0.0131231</v>
       </c>
       <c r="S9">
-        <v>9.26399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ENSMUSG00000016763</t>
+          <t>ENSMUSG00000029288</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Scube1</t>
+          <t>Ambn</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>chr15:83605002-83725021</t>
+          <t>chr5:88455990-88468531</t>
         </is>
       </c>
       <c r="D10">
-        <v>9.82052</v>
+        <v>0.108425</v>
       </c>
       <c r="E10">
-        <v>8.77416</v>
+        <v>0.09450359999999999</v>
       </c>
       <c r="F10">
-        <v>65.0258</v>
+        <v>1.3273</v>
       </c>
       <c r="G10">
-        <v>63.9703</v>
+        <v>1.86992</v>
       </c>
       <c r="H10">
-        <v>27.7086</v>
+        <v>29.71</v>
       </c>
       <c r="I10">
-        <v>48.4275</v>
+        <v>7.19532</v>
       </c>
       <c r="J10">
-        <v>7.51252</v>
+        <v>90.64279999999999</v>
       </c>
       <c r="K10">
-        <v>11.6073</v>
+        <v>26.4026</v>
       </c>
       <c r="L10">
-        <v>30.2723</v>
+        <v>0.0461349</v>
       </c>
       <c r="M10">
-        <v>38.6682</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>41.0739</v>
+        <v>0.075853</v>
       </c>
       <c r="O10">
-        <v>35.7275</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>32.1921</v>
+        <v>0.334421</v>
       </c>
       <c r="Q10">
-        <v>30.1664</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>7.79259</v>
+        <v>0.088686</v>
       </c>
       <c r="S10">
-        <v>23.8929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028255</t>
+          <t>ENSMUSG00000007655</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Clca1</t>
+          <t>Cav1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>chr3:145003816-145032776</t>
+          <t>chr6:17306334-17341452</t>
         </is>
       </c>
       <c r="D11">
-        <v>1.1411</v>
+        <v>0.672735</v>
       </c>
       <c r="E11">
-        <v>0.108251</v>
+        <v>0.133483</v>
       </c>
       <c r="F11">
-        <v>9.687939999999999</v>
+        <v>0.13846</v>
       </c>
       <c r="G11">
-        <v>6.52587</v>
+        <v>0.30089</v>
       </c>
       <c r="H11">
-        <v>1.58366</v>
+        <v>1.94947</v>
       </c>
       <c r="I11">
-        <v>3.80796</v>
+        <v>1.01798</v>
       </c>
       <c r="J11">
-        <v>0.324408</v>
+        <v>7.78751</v>
       </c>
       <c r="K11">
-        <v>0.200802</v>
+        <v>4.55385</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.99623</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.76659</v>
       </c>
       <c r="N11">
-        <v>0.0461536</v>
+        <v>3.80572</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4.15442</v>
       </c>
       <c r="P11">
-        <v>0.0212044</v>
+        <v>9.87354</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>6.09612</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>19.9844</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>11.6829</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031073</t>
+          <t>ENSMUSG00000039405</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fgf15</t>
+          <t>Prss23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>chr7:144896530-144900953</t>
+          <t>chr7:89507782-89527187</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.329182</v>
+        <v>8.673629999999999</v>
       </c>
       <c r="E12">
-        <v>0.1093</v>
+        <v>8.42596</v>
       </c>
       <c r="F12">
-        <v>25.7371</v>
+        <v>5.5823</v>
       </c>
       <c r="G12">
-        <v>3.68116</v>
+        <v>5.71498</v>
       </c>
       <c r="H12">
-        <v>0.0389993</v>
+        <v>5.88804</v>
       </c>
       <c r="I12">
-        <v>0.252118</v>
+        <v>7.46968</v>
       </c>
       <c r="J12">
-        <v>0.07011009999999999</v>
+        <v>31.4129</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.2275</v>
       </c>
       <c r="L12">
-        <v>0.407059</v>
+        <v>0.773019</v>
       </c>
       <c r="M12">
-        <v>0.388362</v>
+        <v>0.699868</v>
       </c>
       <c r="N12">
-        <v>0.279599</v>
+        <v>0.176441</v>
       </c>
       <c r="O12">
-        <v>0.327401</v>
+        <v>0.584919</v>
       </c>
       <c r="P12">
-        <v>0.0214094</v>
+        <v>0.497891</v>
       </c>
       <c r="Q12">
-        <v>0.312264</v>
+        <v>0.379044</v>
       </c>
       <c r="R12">
-        <v>0.08088480000000001</v>
+        <v>1.54588</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.423844</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039601</t>
+          <t>ENSMUSG00000000739</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rcan2</t>
+          <t>Sult5a1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>chr17:43801350-44039516</t>
+          <t>chr8:123140191-123158270</t>
         </is>
       </c>
       <c r="D13">
-        <v>2.17326</v>
+        <v>2.1615</v>
       </c>
       <c r="E13">
-        <v>1.05479</v>
+        <v>0.420834</v>
       </c>
       <c r="F13">
-        <v>24.2038</v>
+        <v>0.637849</v>
       </c>
       <c r="G13">
-        <v>16.9313</v>
+        <v>2.14087</v>
       </c>
       <c r="H13">
-        <v>9.203569999999999</v>
+        <v>6.79704</v>
       </c>
       <c r="I13">
-        <v>13.2253</v>
+        <v>4.37266</v>
       </c>
       <c r="J13">
-        <v>5.64398</v>
+        <v>24.2901</v>
       </c>
       <c r="K13">
-        <v>4.89321</v>
+        <v>12.1336</v>
       </c>
       <c r="L13">
-        <v>0.278497</v>
+        <v>0.488405</v>
       </c>
       <c r="M13">
-        <v>0.29319</v>
+        <v>0.62113</v>
       </c>
       <c r="N13">
-        <v>0.601445</v>
+        <v>0.25717</v>
       </c>
       <c r="O13">
-        <v>0.378378</v>
+        <v>0.624042</v>
       </c>
       <c r="P13">
-        <v>0.945362</v>
+        <v>0.653806</v>
       </c>
       <c r="Q13">
-        <v>0.454926</v>
+        <v>0.611043</v>
       </c>
       <c r="R13">
-        <v>1.04909</v>
+        <v>1.81736</v>
       </c>
       <c r="S13">
-        <v>0.812072</v>
+        <v>1.2192</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ENSMUSG00000052981</t>
+          <t>ENSMUSG00000026043</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ube2ql1</t>
+          <t>Col3a1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>chr13:69702831-69739889</t>
+          <t>chr1:45311537-45349706</t>
         </is>
       </c>
       <c r="D14">
-        <v>3.05581</v>
+        <v>31.7277</v>
       </c>
       <c r="E14">
-        <v>1.29469</v>
+        <v>13.5126</v>
       </c>
       <c r="F14">
-        <v>22.462</v>
+        <v>12.8311</v>
       </c>
       <c r="G14">
-        <v>14.0081</v>
+        <v>6.01536</v>
       </c>
       <c r="H14">
-        <v>6.53354</v>
+        <v>50.9835</v>
       </c>
       <c r="I14">
-        <v>11.7539</v>
+        <v>5.24944</v>
       </c>
       <c r="J14">
-        <v>3.61666</v>
+        <v>28.3325</v>
       </c>
       <c r="K14">
-        <v>2.91359</v>
+        <v>14.4838</v>
       </c>
       <c r="L14">
-        <v>0.799109</v>
+        <v>131.998</v>
       </c>
       <c r="M14">
-        <v>0.976392</v>
+        <v>93.10899999999999</v>
       </c>
       <c r="N14">
-        <v>0.893716</v>
+        <v>87.71080000000001</v>
       </c>
       <c r="O14">
-        <v>0.543013</v>
+        <v>61.4416</v>
       </c>
       <c r="P14">
-        <v>1.04341</v>
+        <v>93.24509999999999</v>
       </c>
       <c r="Q14">
-        <v>0.777529</v>
+        <v>58.8608</v>
       </c>
       <c r="R14">
-        <v>2.24475</v>
+        <v>258.488</v>
       </c>
       <c r="S14">
-        <v>1.10477</v>
+        <v>96.1403</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022101</t>
+          <t>ENSMUSG00000027559</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fgf17</t>
+          <t>Car3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>chr14:70636202-70642268</t>
+          <t>chr3:14863537-14872523</t>
         </is>
       </c>
       <c r="D15">
-        <v>1.99103</v>
+        <v>6.18479</v>
       </c>
       <c r="E15">
-        <v>1.43638</v>
+        <v>4.71302</v>
       </c>
       <c r="F15">
-        <v>14.7612</v>
+        <v>0.12479</v>
       </c>
       <c r="G15">
-        <v>12.1538</v>
+        <v>0.233434</v>
       </c>
       <c r="H15">
-        <v>3.22578</v>
+        <v>0.231231</v>
       </c>
       <c r="I15">
-        <v>8.3924</v>
+        <v>0.0679469</v>
       </c>
       <c r="J15">
-        <v>2.2285</v>
+        <v>0.375169</v>
       </c>
       <c r="K15">
-        <v>1.30477</v>
+        <v>0.268999</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.74723</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.13636</v>
       </c>
       <c r="N15">
-        <v>0.373415</v>
+        <v>0.334905</v>
       </c>
       <c r="O15">
-        <v>0.0716413</v>
+        <v>0.360337</v>
       </c>
       <c r="P15">
-        <v>0.115424</v>
+        <v>0.346197</v>
       </c>
       <c r="Q15">
-        <v>0.137312</v>
+        <v>0.254945</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>0.0435978</v>
       </c>
       <c r="S15">
-        <v>0.0433557</v>
+        <v>0.206997</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ENSMUSG00000054146</t>
+          <t>ENSMUSG00000029541</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Krt15</t>
+          <t>Cyp2w1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>chr11:100131757-100135928</t>
+          <t>chr5:139352616-139357033</t>
         </is>
       </c>
       <c r="D16">
-        <v>3.65502</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>3.31654</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.39682</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1.74559</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2.07614</v>
+        <v>1.45095</v>
       </c>
       <c r="I16">
-        <v>2.04678</v>
+        <v>0.18863</v>
       </c>
       <c r="J16">
-        <v>52.071</v>
+        <v>4.33761</v>
       </c>
       <c r="K16">
-        <v>9.26545</v>
+        <v>4.14462</v>
       </c>
       <c r="L16">
-        <v>0.660432</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.383952</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.330768</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.427063</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.296331</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.143883</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>0.150707</v>
+        <v>0.0607978</v>
       </c>
       <c r="S16">
-        <v>0.136293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENSMUSG00000000938</t>
+          <t>ENSMUSG00000022206</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hoxa10</t>
+          <t>Npr3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>chr6:52231196-52240854</t>
+          <t>chr15:11839895-11907287</t>
         </is>
       </c>
       <c r="D17">
-        <v>1.1271</v>
+        <v>0.222304</v>
       </c>
       <c r="E17">
-        <v>0.601703</v>
+        <v>0.364842</v>
       </c>
       <c r="F17">
-        <v>7.99548</v>
+        <v>0.232197</v>
       </c>
       <c r="G17">
-        <v>12.5539</v>
+        <v>0.492161</v>
       </c>
       <c r="H17">
-        <v>22.0701</v>
+        <v>0.493203</v>
       </c>
       <c r="I17">
-        <v>5.31727</v>
+        <v>0.56515</v>
       </c>
       <c r="J17">
-        <v>1.53059</v>
+        <v>6.86953</v>
       </c>
       <c r="K17">
-        <v>1.94489</v>
+        <v>4.53722</v>
       </c>
       <c r="L17">
-        <v>18.9675</v>
+        <v>2.48029</v>
       </c>
       <c r="M17">
-        <v>17.1634</v>
+        <v>2.67743</v>
       </c>
       <c r="N17">
-        <v>83.22920000000001</v>
+        <v>0.6101529999999999</v>
       </c>
       <c r="O17">
-        <v>109.312</v>
+        <v>0.571577</v>
       </c>
       <c r="P17">
-        <v>65.3383</v>
+        <v>0.588241</v>
       </c>
       <c r="Q17">
-        <v>95.56100000000001</v>
+        <v>0.506836</v>
       </c>
       <c r="R17">
-        <v>59.206</v>
+        <v>0.235346</v>
       </c>
       <c r="S17">
-        <v>68.8023</v>
+        <v>0.420944</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038210</t>
+          <t>ENSMUSG00000071984</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hoxa11</t>
+          <t>Fndc1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>chr6:52242105-52245810</t>
+          <t>chr17:7738568-7827302</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.595484</v>
+        <v>0.185002</v>
       </c>
       <c r="E18">
-        <v>0.670387</v>
+        <v>0.0846146</v>
       </c>
       <c r="F18">
-        <v>8.15372</v>
+        <v>0.119489</v>
       </c>
       <c r="G18">
-        <v>5.94916</v>
+        <v>0.12453</v>
       </c>
       <c r="H18">
-        <v>2.39205</v>
+        <v>0.27153</v>
       </c>
       <c r="I18">
-        <v>1.59626</v>
+        <v>0.29277</v>
       </c>
       <c r="J18">
-        <v>0.226825</v>
+        <v>6.0834</v>
       </c>
       <c r="K18">
-        <v>0.0987427</v>
+        <v>2.3776</v>
       </c>
       <c r="L18">
-        <v>17.198</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>11.3722</v>
+        <v>0.00859009</v>
       </c>
       <c r="N18">
-        <v>71.2531</v>
+        <v>0.0288608</v>
       </c>
       <c r="O18">
-        <v>41.242</v>
+        <v>0.062105</v>
       </c>
       <c r="P18">
-        <v>8.40424</v>
+        <v>0.267405</v>
       </c>
       <c r="Q18">
-        <v>18.182</v>
+        <v>0.07323399999999999</v>
       </c>
       <c r="R18">
-        <v>4.8171</v>
+        <v>0.0688801</v>
       </c>
       <c r="S18">
-        <v>6.35728</v>
+        <v>0.138742</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021466</t>
+          <t>ENSMUSG00000018217</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ptch1</t>
+          <t>Pmp22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>chr13:63508327-63573598</t>
+          <t>chr11:63128981-63159547</t>
         </is>
       </c>
       <c r="D19">
-        <v>6.69799</v>
+        <v>6.20768</v>
       </c>
       <c r="E19">
-        <v>8.038729999999999</v>
+        <v>6.88473</v>
       </c>
       <c r="F19">
-        <v>26.2511</v>
+        <v>0.0775875</v>
       </c>
       <c r="G19">
-        <v>35.9676</v>
+        <v>0.794677</v>
       </c>
       <c r="H19">
-        <v>12.6294</v>
+        <v>1.00985</v>
       </c>
       <c r="I19">
-        <v>44.4725</v>
+        <v>0.190126</v>
       </c>
       <c r="J19">
-        <v>5.83416</v>
+        <v>0.360562</v>
       </c>
       <c r="K19">
-        <v>8.14517</v>
+        <v>0.43909</v>
       </c>
       <c r="L19">
-        <v>3.70766</v>
+        <v>5.21764</v>
       </c>
       <c r="M19">
-        <v>5.65385</v>
+        <v>6.09388</v>
       </c>
       <c r="N19">
-        <v>16.5771</v>
+        <v>1.60591</v>
       </c>
       <c r="O19">
-        <v>22.9063</v>
+        <v>1.88653</v>
       </c>
       <c r="P19">
-        <v>8.793990000000001</v>
+        <v>8.68492</v>
       </c>
       <c r="Q19">
-        <v>22.1799</v>
+        <v>4.63715</v>
       </c>
       <c r="R19">
-        <v>5.30486</v>
+        <v>18.0348</v>
       </c>
       <c r="S19">
-        <v>8.706160000000001</v>
+        <v>13.7036</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ENSMUSG00000042499</t>
+          <t>ENSMUSG00000021950</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hoxd11</t>
+          <t>Anxa8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>chr2:74682322-74684168</t>
+          <t>chr14:34085980-34100571</t>
         </is>
       </c>
       <c r="D20">
-        <v>0.153226</v>
+        <v>0.679127</v>
       </c>
       <c r="E20">
-        <v>0.0890319</v>
+        <v>0.263071</v>
       </c>
       <c r="F20">
-        <v>7.48073</v>
+        <v>2.00614</v>
       </c>
       <c r="G20">
-        <v>3.22539</v>
+        <v>2.02552</v>
       </c>
       <c r="H20">
-        <v>16.4241</v>
+        <v>12.8959</v>
       </c>
       <c r="I20">
-        <v>2.77249</v>
+        <v>4.49051</v>
       </c>
       <c r="J20">
-        <v>0.433569</v>
+        <v>46.2032</v>
       </c>
       <c r="K20">
-        <v>0.6606030000000001</v>
+        <v>18.9489</v>
       </c>
       <c r="L20">
-        <v>2.83609</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.44617</v>
+        <v>0.0415633</v>
       </c>
       <c r="N20">
-        <v>65.3913</v>
+        <v>0.134463</v>
       </c>
       <c r="O20">
-        <v>48.0302</v>
+        <v>0.0500827</v>
       </c>
       <c r="P20">
-        <v>44.2968</v>
+        <v>0.195022</v>
       </c>
       <c r="Q20">
-        <v>42.3815</v>
+        <v>0.0650578</v>
       </c>
       <c r="R20">
-        <v>20.6227</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>38.7381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ENSMUSG00000042808</t>
+          <t>ENSMUSG00000009900</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gpx2</t>
+          <t>Wnt3a</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>chr12:76792334-76795554</t>
+          <t>chr11:59248032-59290752</t>
         </is>
       </c>
       <c r="D21">
-        <v>16.2735</v>
+        <v>0.154142</v>
       </c>
       <c r="E21">
-        <v>9.316689999999999</v>
+        <v>0.232866</v>
       </c>
       <c r="F21">
-        <v>52.0372</v>
+        <v>0.177069</v>
       </c>
       <c r="G21">
-        <v>32.482</v>
+        <v>0.08111649999999999</v>
       </c>
       <c r="H21">
-        <v>28.0172</v>
+        <v>0.626375</v>
       </c>
       <c r="I21">
-        <v>45.2803</v>
+        <v>0.537152</v>
       </c>
       <c r="J21">
-        <v>8.0566</v>
+        <v>5.83783</v>
       </c>
       <c r="K21">
-        <v>6.13769</v>
+        <v>2.29014</v>
       </c>
       <c r="L21">
-        <v>0.0339431</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.316198</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.170105</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9079429999999999</v>
+        <v>0.0280703</v>
       </c>
       <c r="Q21">
-        <v>0.573106</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>0.0132562</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -1757,1017 +1757,1017 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029231</t>
+          <t>ENSMUSG00000040055</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pdgfra</t>
+          <t>Gjb6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>chr5:75152291-75198215</t>
+          <t>chr14:57123302-57133611</t>
         </is>
       </c>
       <c r="D22">
-        <v>12.0124</v>
+        <v>0.736273</v>
       </c>
       <c r="E22">
-        <v>7.29833</v>
+        <v>0.305437</v>
       </c>
       <c r="F22">
-        <v>56.565</v>
+        <v>1.8291</v>
       </c>
       <c r="G22">
-        <v>65.0909</v>
+        <v>1.94172</v>
       </c>
       <c r="H22">
-        <v>23.899</v>
+        <v>3.87912</v>
       </c>
       <c r="I22">
-        <v>47.9912</v>
+        <v>7.35548</v>
       </c>
       <c r="J22">
-        <v>13.9767</v>
+        <v>36.7753</v>
       </c>
       <c r="K22">
-        <v>23.4513</v>
+        <v>26.6231</v>
       </c>
       <c r="L22">
-        <v>25.5016</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>30.2289</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>29.5449</v>
+        <v>0.195729</v>
       </c>
       <c r="O22">
-        <v>29.7963</v>
+        <v>0.0287414</v>
       </c>
       <c r="P22">
-        <v>26.5391</v>
+        <v>0.0420976</v>
       </c>
       <c r="Q22">
-        <v>38.6347</v>
+        <v>0.137072</v>
       </c>
       <c r="R22">
-        <v>61.9467</v>
+        <v>0.0996575</v>
       </c>
       <c r="S22">
-        <v>60.2423</v>
+        <v>0.0550353</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ENSMUSG00000050751</t>
+          <t>ENSMUSG00000041120</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pgbd5</t>
+          <t>Nbl1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>chr8:124369048-124439658</t>
+          <t>chr4:139082283-139092993</t>
         </is>
       </c>
       <c r="D23">
-        <v>0.369859</v>
+        <v>1.09185</v>
       </c>
       <c r="E23">
-        <v>0.679074</v>
+        <v>0.7447549999999999</v>
       </c>
       <c r="F23">
-        <v>8.29583</v>
+        <v>1.09066</v>
       </c>
       <c r="G23">
-        <v>5.45228</v>
+        <v>0.281046</v>
       </c>
       <c r="H23">
-        <v>0.381341</v>
+        <v>10.7281</v>
       </c>
       <c r="I23">
-        <v>2.1474</v>
+        <v>2.32238</v>
       </c>
       <c r="J23">
-        <v>0.437006</v>
+        <v>10.9734</v>
       </c>
       <c r="K23">
-        <v>0.376925</v>
+        <v>4.31372</v>
       </c>
       <c r="L23">
-        <v>0.405073</v>
+        <v>5.19121</v>
       </c>
       <c r="M23">
-        <v>0.437193</v>
+        <v>4.17242</v>
       </c>
       <c r="N23">
-        <v>0.366536</v>
+        <v>1.85031</v>
       </c>
       <c r="O23">
-        <v>0.367635</v>
+        <v>0.776082</v>
       </c>
       <c r="P23">
-        <v>0.408748</v>
+        <v>17.0522</v>
       </c>
       <c r="Q23">
-        <v>0.804985</v>
+        <v>6.10481</v>
       </c>
       <c r="R23">
-        <v>0.770952</v>
+        <v>37.0903</v>
       </c>
       <c r="S23">
-        <v>0.533281</v>
+        <v>17.316</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031654</t>
+          <t>ENSMUSG00000061353</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cbln1</t>
+          <t>Cxcl12</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>chr8:87468404-87472609</t>
+          <t>chr6:117168534-117181367</t>
         </is>
       </c>
       <c r="D24">
-        <v>0.400786</v>
+        <v>1.71989</v>
       </c>
       <c r="E24">
-        <v>0.0353266</v>
+        <v>2.37558</v>
       </c>
       <c r="F24">
-        <v>4.24799</v>
+        <v>1.40638</v>
       </c>
       <c r="G24">
-        <v>4.07584</v>
+        <v>2.22257</v>
       </c>
       <c r="H24">
-        <v>4.72716</v>
+        <v>4.06655</v>
       </c>
       <c r="I24">
-        <v>6.11979</v>
+        <v>6.42125</v>
       </c>
       <c r="J24">
-        <v>0.675782</v>
+        <v>12.6861</v>
       </c>
       <c r="K24">
-        <v>0.677748</v>
+        <v>20.2648</v>
       </c>
       <c r="L24">
-        <v>0.631161</v>
+        <v>6.07245</v>
       </c>
       <c r="M24">
-        <v>0.598139</v>
+        <v>3.95377</v>
       </c>
       <c r="N24">
-        <v>26.8589</v>
+        <v>0.356897</v>
       </c>
       <c r="O24">
-        <v>32.2917</v>
+        <v>0.480764</v>
       </c>
       <c r="P24">
-        <v>23.6376</v>
+        <v>0.287058</v>
       </c>
       <c r="Q24">
-        <v>28.1916</v>
+        <v>0.585495</v>
       </c>
       <c r="R24">
-        <v>5.23102</v>
+        <v>1.21573</v>
       </c>
       <c r="S24">
-        <v>11.7938</v>
+        <v>0.544484</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001823</t>
+          <t>ENSMUSG00000024421</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hoxd12</t>
+          <t>Lama3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>chr2:74675012-74677705</t>
+          <t>chr18:12333818-12583013</t>
         </is>
       </c>
       <c r="D25">
-        <v>0.13436</v>
+        <v>0.199337</v>
       </c>
       <c r="E25">
-        <v>0.0195175</v>
+        <v>0.0531647</v>
       </c>
       <c r="F25">
-        <v>6.58722</v>
+        <v>0.791672</v>
       </c>
       <c r="G25">
-        <v>6.42987</v>
+        <v>0.886118</v>
       </c>
       <c r="H25">
-        <v>53.5126</v>
+        <v>5.43533</v>
       </c>
       <c r="I25">
-        <v>5.42501</v>
+        <v>2.96866</v>
       </c>
       <c r="J25">
-        <v>2.3396</v>
+        <v>16.7335</v>
       </c>
       <c r="K25">
-        <v>2.51758</v>
+        <v>13.5674</v>
       </c>
       <c r="L25">
-        <v>0.100048</v>
+        <v>0.0193478</v>
       </c>
       <c r="M25">
-        <v>0.118885</v>
+        <v>0.00952621</v>
       </c>
       <c r="N25">
-        <v>99.5018</v>
+        <v>0.0101298</v>
       </c>
       <c r="O25">
-        <v>116.608</v>
+        <v>0.010899</v>
       </c>
       <c r="P25">
-        <v>198.664</v>
+        <v>0.1322</v>
       </c>
       <c r="Q25">
-        <v>158.933</v>
+        <v>0.0436796</v>
       </c>
       <c r="R25">
-        <v>84.2936</v>
+        <v>1.06068</v>
       </c>
       <c r="S25">
-        <v>148.835</v>
+        <v>0.0919534</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032036</t>
+          <t>ENSMUSG00000010760</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kirrel3</t>
+          <t>Phlda2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>chr9:34485893-35036716</t>
+          <t>chr7:143501544-143502993</t>
         </is>
       </c>
       <c r="D26">
-        <v>3.99702</v>
+        <v>5.85014</v>
       </c>
       <c r="E26">
-        <v>3.04118</v>
+        <v>3.39178</v>
       </c>
       <c r="F26">
-        <v>23.8894</v>
+        <v>0.184521</v>
       </c>
       <c r="G26">
-        <v>16.3831</v>
+        <v>0.543286</v>
       </c>
       <c r="H26">
-        <v>3.6799</v>
+        <v>2.06902</v>
       </c>
       <c r="I26">
-        <v>10.0025</v>
+        <v>0.452132</v>
       </c>
       <c r="J26">
-        <v>3.6198</v>
+        <v>0.765971</v>
       </c>
       <c r="K26">
-        <v>4.00153</v>
+        <v>0.8295360000000001</v>
       </c>
       <c r="L26">
-        <v>0.06864099999999999</v>
+        <v>3.2589</v>
       </c>
       <c r="M26">
-        <v>0.0717045</v>
+        <v>2.01727</v>
       </c>
       <c r="N26">
-        <v>0.286833</v>
+        <v>1.17938</v>
       </c>
       <c r="O26">
-        <v>0.494678</v>
+        <v>1.83818</v>
       </c>
       <c r="P26">
-        <v>0.235337</v>
+        <v>6.93856</v>
       </c>
       <c r="Q26">
-        <v>0.382722</v>
+        <v>3.79686</v>
       </c>
       <c r="R26">
-        <v>1.9432</v>
+        <v>6.16475</v>
       </c>
       <c r="S26">
-        <v>0.407917</v>
+        <v>3.98461</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001819</t>
+          <t>ENSMUSG00000014813</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hoxd13</t>
+          <t>Stc1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>chr2:74668309-74671599</t>
+          <t>chr14:69029237-69041804</t>
         </is>
       </c>
       <c r="D27">
-        <v>0.342799</v>
+        <v>5.04983</v>
       </c>
       <c r="E27">
-        <v>0.298775</v>
+        <v>5.98625</v>
       </c>
       <c r="F27">
-        <v>6.94754</v>
+        <v>0.515862</v>
       </c>
       <c r="G27">
-        <v>12.267</v>
+        <v>0.667032</v>
       </c>
       <c r="H27">
-        <v>94.6536</v>
+        <v>0.403652</v>
       </c>
       <c r="I27">
-        <v>13.1634</v>
+        <v>0.380548</v>
       </c>
       <c r="J27">
-        <v>5.61099</v>
+        <v>0.741598</v>
       </c>
       <c r="K27">
-        <v>8.66283</v>
+        <v>0.5649650000000001</v>
       </c>
       <c r="L27">
-        <v>3.07766</v>
+        <v>1.11318</v>
       </c>
       <c r="M27">
-        <v>2.70963</v>
+        <v>1.42361</v>
       </c>
       <c r="N27">
-        <v>129.298</v>
+        <v>0.629696</v>
       </c>
       <c r="O27">
-        <v>265.053</v>
+        <v>0.69193</v>
       </c>
       <c r="P27">
-        <v>318.03</v>
+        <v>1.24646</v>
       </c>
       <c r="Q27">
-        <v>376.63</v>
+        <v>1.10732</v>
       </c>
       <c r="R27">
-        <v>202.223</v>
+        <v>1.63947</v>
       </c>
       <c r="S27">
-        <v>395.838</v>
+        <v>1.98741</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032744</t>
+          <t>ENSMUSG00000052305</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Heyl</t>
+          <t>Hbb-bs</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>chr4:123233555-123249875</t>
+          <t>chr7:103826533-103828096</t>
         </is>
       </c>
       <c r="D28">
-        <v>0.281409</v>
+        <v>0.271073</v>
       </c>
       <c r="E28">
-        <v>0.512341</v>
+        <v>10.6993</v>
       </c>
       <c r="F28">
-        <v>7.45054</v>
+        <v>0.222424</v>
       </c>
       <c r="G28">
-        <v>10.4527</v>
+        <v>1.1183</v>
       </c>
       <c r="H28">
-        <v>4.58196</v>
+        <v>0.505811</v>
       </c>
       <c r="I28">
-        <v>10.3974</v>
+        <v>0.544981</v>
       </c>
       <c r="J28">
-        <v>4.09981</v>
+        <v>3.22656</v>
       </c>
       <c r="K28">
-        <v>4.38011</v>
+        <v>0.179797</v>
       </c>
       <c r="L28">
-        <v>0.007982639999999999</v>
+        <v>7.42486</v>
       </c>
       <c r="M28">
-        <v>0.121732</v>
+        <v>4.11522</v>
       </c>
       <c r="N28">
-        <v>0.111544</v>
+        <v>13.3492</v>
       </c>
       <c r="O28">
-        <v>0.10668</v>
+        <v>23.7324</v>
       </c>
       <c r="P28">
-        <v>0.136658</v>
+        <v>92.31659999999999</v>
       </c>
       <c r="Q28">
-        <v>0.14826</v>
+        <v>29.0179</v>
       </c>
       <c r="R28">
-        <v>0.008067090000000001</v>
+        <v>206.941</v>
       </c>
       <c r="S28">
-        <v>0.0255343</v>
+        <v>63.1427</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ENSMUSG00000051920</t>
+          <t>ENSMUSG00000027748</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Rspo2</t>
+          <t>Trpc4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>chr15:43020793-43170826</t>
+          <t>chr3:54156056-54318471</t>
         </is>
       </c>
       <c r="D29">
-        <v>20.3003</v>
+        <v>0.241654</v>
       </c>
       <c r="E29">
-        <v>10.1726</v>
+        <v>0.0312017</v>
       </c>
       <c r="F29">
-        <v>57.5621</v>
+        <v>0.120659</v>
       </c>
       <c r="G29">
-        <v>63.8234</v>
+        <v>0.0967312</v>
       </c>
       <c r="H29">
-        <v>29.6186</v>
+        <v>1.58647</v>
       </c>
       <c r="I29">
-        <v>51.0409</v>
+        <v>0.985464</v>
       </c>
       <c r="J29">
-        <v>15.9092</v>
+        <v>4.66003</v>
       </c>
       <c r="K29">
-        <v>21.8334</v>
+        <v>3.84432</v>
       </c>
       <c r="L29">
-        <v>9.33165</v>
+        <v>0.0228488</v>
       </c>
       <c r="M29">
-        <v>9.98817</v>
+        <v>0.0475148</v>
       </c>
       <c r="N29">
-        <v>0.767166</v>
+        <v>0.00886819</v>
       </c>
       <c r="O29">
-        <v>0.622036</v>
+        <v>0.0190835</v>
       </c>
       <c r="P29">
-        <v>0.676982</v>
+        <v>0.0855687</v>
       </c>
       <c r="Q29">
-        <v>0.494581</v>
+        <v>0.0192884</v>
       </c>
       <c r="R29">
-        <v>0.201296</v>
+        <v>0.0230905</v>
       </c>
       <c r="S29">
-        <v>0.149915</v>
+        <v>0.0548182</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032265</t>
+          <t>ENSMUSG00000047428</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fam46a</t>
+          <t>Dlk2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>chr9:85320438-85327348</t>
+          <t>chr17:46297420-46303271</t>
         </is>
       </c>
       <c r="D30">
-        <v>3.54177</v>
+        <v>1.22551</v>
       </c>
       <c r="E30">
-        <v>2.49985</v>
+        <v>1.6803</v>
       </c>
       <c r="F30">
-        <v>19.8258</v>
+        <v>2.41603</v>
       </c>
       <c r="G30">
-        <v>22.251</v>
+        <v>1.74982</v>
       </c>
       <c r="H30">
-        <v>2.35772</v>
+        <v>3.02594</v>
       </c>
       <c r="I30">
-        <v>11.8557</v>
+        <v>1.9826</v>
       </c>
       <c r="J30">
-        <v>5.38745</v>
+        <v>13.9542</v>
       </c>
       <c r="K30">
-        <v>7.15098</v>
+        <v>9.689299999999999</v>
       </c>
       <c r="L30">
-        <v>0.0660968</v>
+        <v>0.118464</v>
       </c>
       <c r="M30">
-        <v>0.210769</v>
+        <v>0.07488300000000001</v>
       </c>
       <c r="N30">
-        <v>0.148809</v>
+        <v>0.255135</v>
       </c>
       <c r="O30">
-        <v>0.0662457</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>0.06365369999999999</v>
+        <v>0.230326</v>
       </c>
       <c r="Q30">
-        <v>0.133922</v>
+        <v>0.0399768</v>
       </c>
       <c r="R30">
-        <v>0.213759</v>
+        <v>0.576022</v>
       </c>
       <c r="S30">
-        <v>0.194863</v>
+        <v>0.0863903</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ENSMUSG00000026676</t>
+          <t>ENSMUSG00000022986</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ccdc3</t>
+          <t>Krt75</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>chr2:5137775-5230878</t>
+          <t>chr15:101563344-101573904</t>
         </is>
       </c>
       <c r="D31">
-        <v>6.75835</v>
+        <v>0.260615</v>
       </c>
       <c r="E31">
-        <v>6.2794</v>
+        <v>0.408863</v>
       </c>
       <c r="F31">
-        <v>30.1337</v>
+        <v>0.363533</v>
       </c>
       <c r="G31">
-        <v>17.5102</v>
+        <v>0.445731</v>
       </c>
       <c r="H31">
-        <v>3.33115</v>
+        <v>1.3076</v>
       </c>
       <c r="I31">
-        <v>5.76823</v>
+        <v>0.541422</v>
       </c>
       <c r="J31">
-        <v>2.87268</v>
+        <v>6.90923</v>
       </c>
       <c r="K31">
-        <v>2.05103</v>
+        <v>2.26447</v>
       </c>
       <c r="L31">
-        <v>2.31953</v>
+        <v>0.0221784</v>
       </c>
       <c r="M31">
-        <v>2.04973</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>3.33803</v>
+        <v>0.0344339</v>
       </c>
       <c r="O31">
-        <v>2.4019</v>
+        <v>0.0185244</v>
       </c>
       <c r="P31">
-        <v>0.493459</v>
+        <v>0.0949198</v>
       </c>
       <c r="Q31">
-        <v>0.641278</v>
+        <v>0.0748933</v>
       </c>
       <c r="R31">
-        <v>1.59013</v>
+        <v>0.0672389</v>
       </c>
       <c r="S31">
-        <v>0.325419</v>
+        <v>0.0177357</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ENSMUSG00000046743</t>
+          <t>ENSMUSG00000022129</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fat4</t>
+          <t>Dct</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>chr3:38886939-39011985</t>
+          <t>chr14:118012789-118052185</t>
         </is>
       </c>
       <c r="D32">
-        <v>0.433273</v>
+        <v>0.193272</v>
       </c>
       <c r="E32">
-        <v>0.362279</v>
+        <v>0.0449203</v>
       </c>
       <c r="F32">
-        <v>5.19397</v>
+        <v>0.190303</v>
       </c>
       <c r="G32">
-        <v>7.79261</v>
+        <v>0.228845</v>
       </c>
       <c r="H32">
-        <v>4.33155</v>
+        <v>1.29829</v>
       </c>
       <c r="I32">
-        <v>7.4254</v>
+        <v>0.310852</v>
       </c>
       <c r="J32">
-        <v>2.05175</v>
+        <v>4.61064</v>
       </c>
       <c r="K32">
-        <v>3.23478</v>
+        <v>3.07663</v>
       </c>
       <c r="L32">
-        <v>0.501362</v>
+        <v>0.0328949</v>
       </c>
       <c r="M32">
-        <v>0.610899</v>
+        <v>0.0228016</v>
       </c>
       <c r="N32">
-        <v>2.22004</v>
+        <v>0.319201</v>
       </c>
       <c r="O32">
-        <v>3.20362</v>
+        <v>0.329704</v>
       </c>
       <c r="P32">
-        <v>9.30707</v>
+        <v>1.05589</v>
       </c>
       <c r="Q32">
-        <v>6.01293</v>
+        <v>0.555408</v>
       </c>
       <c r="R32">
-        <v>11.1648</v>
+        <v>0.847693</v>
       </c>
       <c r="S32">
-        <v>12.9592</v>
+        <v>0.868081</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029830</t>
+          <t>ENSMUSG00000024619</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Svopl</t>
+          <t>Cdx1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>chr6:37983738-38046996</t>
+          <t>chr18:61018861-61036199</t>
         </is>
       </c>
       <c r="D33">
-        <v>6.58343</v>
+        <v>14.8347</v>
       </c>
       <c r="E33">
-        <v>3.49085</v>
+        <v>13.6785</v>
       </c>
       <c r="F33">
-        <v>22.8179</v>
+        <v>1.83582</v>
       </c>
       <c r="G33">
-        <v>16.1157</v>
+        <v>0.671888</v>
       </c>
       <c r="H33">
-        <v>5.69841</v>
+        <v>0.141177</v>
       </c>
       <c r="I33">
-        <v>10.2945</v>
+        <v>0.0325951</v>
       </c>
       <c r="J33">
-        <v>3.75859</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>3.41219</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>0.535758</v>
+        <v>22.2891</v>
       </c>
       <c r="M33">
-        <v>0.551748</v>
+        <v>18.1613</v>
       </c>
       <c r="N33">
-        <v>0.90311</v>
+        <v>1.18887</v>
       </c>
       <c r="O33">
-        <v>0.818267</v>
+        <v>0.553149</v>
       </c>
       <c r="P33">
-        <v>3.25928</v>
+        <v>0.177147</v>
       </c>
       <c r="Q33">
-        <v>1.65411</v>
+        <v>0.209658</v>
       </c>
       <c r="R33">
-        <v>3.15574</v>
+        <v>0.188231</v>
       </c>
       <c r="S33">
-        <v>3.35405</v>
+        <v>0.231699</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032394</t>
+          <t>ENSMUSG00000000544</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Igdcc3</t>
+          <t>Gpa33</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>chr9:65141188-65185872</t>
+          <t>chr1:166130237-166166510</t>
         </is>
       </c>
       <c r="D34">
-        <v>138.67</v>
+        <v>0.101531</v>
       </c>
       <c r="E34">
-        <v>100.362</v>
+        <v>0.101341</v>
       </c>
       <c r="F34">
-        <v>89.9378</v>
+        <v>0.166633</v>
       </c>
       <c r="G34">
-        <v>51.3037</v>
+        <v>0.100565</v>
       </c>
       <c r="H34">
-        <v>4.42878</v>
+        <v>0.7956029999999999</v>
       </c>
       <c r="I34">
-        <v>13.4018</v>
+        <v>0.486563</v>
       </c>
       <c r="J34">
-        <v>0.680704</v>
+        <v>5.41963</v>
       </c>
       <c r="K34">
-        <v>1.88373</v>
+        <v>1.7373</v>
       </c>
       <c r="L34">
-        <v>300.355</v>
+        <v>0.081313</v>
       </c>
       <c r="M34">
-        <v>294.417</v>
+        <v>0.0450898</v>
       </c>
       <c r="N34">
-        <v>189.801</v>
+        <v>0.06708</v>
       </c>
       <c r="O34">
-        <v>91.221</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>1.98391</v>
+        <v>0.0696011</v>
       </c>
       <c r="Q34">
-        <v>7.50832</v>
+        <v>0.0823743</v>
       </c>
       <c r="R34">
-        <v>0.47699</v>
+        <v>0.0837905</v>
       </c>
       <c r="S34">
-        <v>0.530118</v>
+        <v>0.0260085</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031074</t>
+          <t>ENSMUSG00000074207</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fgf3</t>
+          <t>Adh1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>chr7:144838082-144844436</t>
+          <t>chr3:138277493-138290698</t>
         </is>
       </c>
       <c r="D35">
-        <v>0.333211</v>
+        <v>9.81241</v>
       </c>
       <c r="E35">
-        <v>0.279664</v>
+        <v>10.2097</v>
       </c>
       <c r="F35">
-        <v>6.07578</v>
+        <v>1.73198</v>
       </c>
       <c r="G35">
-        <v>2.72769</v>
+        <v>0.975709</v>
       </c>
       <c r="H35">
-        <v>0.85826</v>
+        <v>0.283869</v>
       </c>
       <c r="I35">
-        <v>1.83605</v>
+        <v>0.382315</v>
       </c>
       <c r="J35">
-        <v>0.322344</v>
+        <v>0.794712</v>
       </c>
       <c r="K35">
-        <v>0.270127</v>
+        <v>0.378392</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>0.50976</v>
       </c>
       <c r="M35">
-        <v>0.0655186</v>
+        <v>0.336522</v>
       </c>
       <c r="N35">
-        <v>0.0469369</v>
+        <v>0.207284</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.1622</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>0.155835</v>
       </c>
       <c r="Q35">
-        <v>0.116258</v>
+        <v>0.081971</v>
       </c>
       <c r="R35">
-        <v>0.0159201</v>
+        <v>0.0981244</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>0.0388235</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027004</t>
+          <t>ENSMUSG00000037335</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Frzb</t>
+          <t>Hand1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>chr2:80411969-80447625</t>
+          <t>chr11:57828704-57832818</t>
         </is>
       </c>
       <c r="D36">
-        <v>10.2984</v>
+        <v>5.57356</v>
       </c>
       <c r="E36">
-        <v>6.47075</v>
+        <v>2.89182</v>
       </c>
       <c r="F36">
-        <v>12.1096</v>
+        <v>0.077338</v>
       </c>
       <c r="G36">
-        <v>14.5089</v>
+        <v>0.126627</v>
       </c>
       <c r="H36">
-        <v>3.53055</v>
+        <v>1.43632</v>
       </c>
       <c r="I36">
-        <v>7.0464</v>
+        <v>0.0631645</v>
       </c>
       <c r="J36">
-        <v>0.5295029999999999</v>
+        <v>0.143615</v>
       </c>
       <c r="K36">
-        <v>1.09363</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>13.8704</v>
+        <v>1.17846</v>
       </c>
       <c r="M36">
-        <v>9.757999999999999</v>
+        <v>1.60451</v>
       </c>
       <c r="N36">
-        <v>56.8912</v>
+        <v>0.585547</v>
       </c>
       <c r="O36">
-        <v>55.2172</v>
+        <v>0.401993</v>
       </c>
       <c r="P36">
-        <v>17.9788</v>
+        <v>2.76777</v>
       </c>
       <c r="Q36">
-        <v>39.1098</v>
+        <v>2.13683</v>
       </c>
       <c r="R36">
-        <v>1.25527</v>
+        <v>7.45307</v>
       </c>
       <c r="S36">
-        <v>4.7826</v>
+        <v>3.26976</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ENSMUSG00000018634</t>
+          <t>ENSMUSG00000042306</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Crhr1</t>
+          <t>S100a14</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>chr11:104132854-104175523</t>
+          <t>chr3:90526855-90528837</t>
         </is>
       </c>
       <c r="D37">
-        <v>8.7539</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>8.303190000000001</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>21.7189</v>
+        <v>0.152656</v>
       </c>
       <c r="G37">
-        <v>22.4873</v>
+        <v>0.278519</v>
       </c>
       <c r="H37">
-        <v>6.29846</v>
+        <v>0.308583</v>
       </c>
       <c r="I37">
-        <v>12.4749</v>
+        <v>0.980142</v>
       </c>
       <c r="J37">
-        <v>2.57567</v>
+        <v>7.65013</v>
       </c>
       <c r="K37">
-        <v>4.01619</v>
+        <v>1.80959</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2776,734 +2776,734 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0.262866</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>0.122969</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>0.110267</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>0.0497158</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>0.0595128</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>0.0235466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ENSMUSG00000018909</t>
+          <t>ENSMUSG00000038521</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Arrb1</t>
+          <t>C1s1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>chr7:99535465-99606771</t>
+          <t>chr6:124530344-124542359</t>
         </is>
       </c>
       <c r="D38">
-        <v>4.06973</v>
+        <v>0.263596</v>
       </c>
       <c r="E38">
-        <v>3.991</v>
+        <v>0.293622</v>
       </c>
       <c r="F38">
-        <v>12.2516</v>
+        <v>0.24222</v>
       </c>
       <c r="G38">
-        <v>15.8804</v>
+        <v>0.429202</v>
       </c>
       <c r="H38">
-        <v>10.743</v>
+        <v>0.935184</v>
       </c>
       <c r="I38">
-        <v>26.2001</v>
+        <v>0.706627</v>
       </c>
       <c r="J38">
-        <v>4.47508</v>
+        <v>3.49368</v>
       </c>
       <c r="K38">
-        <v>4.43379</v>
+        <v>4.58879</v>
       </c>
       <c r="L38">
-        <v>9.38251</v>
+        <v>0.0249258</v>
       </c>
       <c r="M38">
-        <v>9.33844</v>
+        <v>0.172768</v>
       </c>
       <c r="N38">
-        <v>12.4841</v>
+        <v>0.0773943</v>
       </c>
       <c r="O38">
-        <v>13.2174</v>
+        <v>0.104085</v>
       </c>
       <c r="P38">
-        <v>13.0108</v>
+        <v>0.600061</v>
       </c>
       <c r="Q38">
-        <v>14.959</v>
+        <v>0.59944</v>
       </c>
       <c r="R38">
-        <v>7.99336</v>
+        <v>1.70142</v>
       </c>
       <c r="S38">
-        <v>10.7867</v>
+        <v>1.13616</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ENSMUSG00000019929</t>
+          <t>ENSMUSG00000058297</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Dcn</t>
+          <t>Spock2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>chr10:97479608-97518143</t>
+          <t>chr10:60106218-60135198</t>
         </is>
       </c>
       <c r="D39">
-        <v>0.242085</v>
+        <v>1.17055</v>
       </c>
       <c r="E39">
-        <v>0.140663</v>
+        <v>0.806054</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1.8155</v>
       </c>
       <c r="G39">
-        <v>0.0955473</v>
+        <v>2.17814</v>
       </c>
       <c r="H39">
-        <v>0.642445</v>
+        <v>6.51627</v>
       </c>
       <c r="I39">
-        <v>0.356914</v>
+        <v>2.47008</v>
       </c>
       <c r="J39">
-        <v>11.4448</v>
+        <v>19.0369</v>
       </c>
       <c r="K39">
-        <v>5.20244</v>
+        <v>8.482469999999999</v>
       </c>
       <c r="L39">
-        <v>0.103007</v>
+        <v>0.443424</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>0.400242</v>
       </c>
       <c r="N39">
-        <v>0.223898</v>
+        <v>2.56607</v>
       </c>
       <c r="O39">
-        <v>0.103243</v>
+        <v>2.81838</v>
       </c>
       <c r="P39">
-        <v>0.176341</v>
+        <v>8.101100000000001</v>
       </c>
       <c r="Q39">
-        <v>0.104352</v>
+        <v>5.40474</v>
       </c>
       <c r="R39">
-        <v>0.499664</v>
+        <v>7.3956</v>
       </c>
       <c r="S39">
-        <v>0.263593</v>
+        <v>7.98428</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032318</t>
+          <t>ENSMUSG00000041559</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Isl2</t>
+          <t>Fmod</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>chr9:55538671-55546180</t>
+          <t>chr1:134037253-134048277</t>
         </is>
       </c>
       <c r="D40">
-        <v>6.91972</v>
+        <v>4.41761</v>
       </c>
       <c r="E40">
-        <v>5.54882</v>
+        <v>2.91671</v>
       </c>
       <c r="F40">
-        <v>17.7472</v>
+        <v>7.70043</v>
       </c>
       <c r="G40">
-        <v>21.383</v>
+        <v>6.46048</v>
       </c>
       <c r="H40">
-        <v>3.75733</v>
+        <v>18.3598</v>
       </c>
       <c r="I40">
-        <v>14.0017</v>
+        <v>12.231</v>
       </c>
       <c r="J40">
-        <v>2.42404</v>
+        <v>61.6251</v>
       </c>
       <c r="K40">
-        <v>6.08552</v>
+        <v>38.4517</v>
       </c>
       <c r="L40">
-        <v>0.0781386</v>
+        <v>0.116081</v>
       </c>
       <c r="M40">
-        <v>0.054163</v>
+        <v>0.0482779</v>
       </c>
       <c r="N40">
-        <v>0.243797</v>
+        <v>0.18924</v>
       </c>
       <c r="O40">
-        <v>0.228428</v>
+        <v>0.0193912</v>
       </c>
       <c r="P40">
-        <v>0.146309</v>
+        <v>0.695531</v>
       </c>
       <c r="Q40">
-        <v>0.09894890000000001</v>
+        <v>0.156798</v>
       </c>
       <c r="R40">
-        <v>0.0613098</v>
+        <v>1.09097</v>
       </c>
       <c r="S40">
-        <v>0.0909334</v>
+        <v>0.278484</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032085</t>
+          <t>ENSMUSG00000000627</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tagln</t>
+          <t>Sema4f</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>chr9:45929618-45936058</t>
+          <t>chr6:82911884-82939769</t>
         </is>
       </c>
       <c r="D41">
-        <v>2.06637</v>
+        <v>0.437459</v>
       </c>
       <c r="E41">
-        <v>2.53388</v>
+        <v>0.278394</v>
       </c>
       <c r="F41">
-        <v>22.8711</v>
+        <v>0.410227</v>
       </c>
       <c r="G41">
-        <v>21.0467</v>
+        <v>0.342576</v>
       </c>
       <c r="H41">
-        <v>18.4806</v>
+        <v>2.74684</v>
       </c>
       <c r="I41">
-        <v>25.5465</v>
+        <v>1.13078</v>
       </c>
       <c r="J41">
-        <v>11.9936</v>
+        <v>4.98761</v>
       </c>
       <c r="K41">
-        <v>15.3149</v>
+        <v>3.89639</v>
       </c>
       <c r="L41">
-        <v>8.24593</v>
+        <v>0.177275</v>
       </c>
       <c r="M41">
-        <v>4.9915</v>
+        <v>0.159745</v>
       </c>
       <c r="N41">
-        <v>0.634576</v>
+        <v>0.529827</v>
       </c>
       <c r="O41">
-        <v>0.455177</v>
+        <v>0.414591</v>
       </c>
       <c r="P41">
-        <v>1.27883</v>
+        <v>0.976837</v>
       </c>
       <c r="Q41">
-        <v>0.7508550000000001</v>
+        <v>0.643531</v>
       </c>
       <c r="R41">
-        <v>1.93361</v>
+        <v>1.19135</v>
       </c>
       <c r="S41">
-        <v>0.870437</v>
+        <v>1.04905</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022996</t>
+          <t>ENSMUSG00000059898</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Wnt10b</t>
+          <t>Dsc3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>chr15:98770711-98778150</t>
+          <t>chr18:19960929-20002351</t>
         </is>
       </c>
       <c r="D42">
-        <v>1.92491</v>
+        <v>0.289994</v>
       </c>
       <c r="E42">
-        <v>2.39999</v>
+        <v>0.0741928</v>
       </c>
       <c r="F42">
-        <v>21.4859</v>
+        <v>1.10846</v>
       </c>
       <c r="G42">
-        <v>34.999</v>
+        <v>0.947095</v>
       </c>
       <c r="H42">
-        <v>5.83278</v>
+        <v>3.96032</v>
       </c>
       <c r="I42">
-        <v>14.7234</v>
+        <v>3.32236</v>
       </c>
       <c r="J42">
-        <v>15.9383</v>
+        <v>18.3511</v>
       </c>
       <c r="K42">
-        <v>11.54</v>
+        <v>8.131130000000001</v>
       </c>
       <c r="L42">
-        <v>0.0133692</v>
+        <v>0.0271658</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0.168728</v>
+        <v>0.0384848</v>
       </c>
       <c r="O42">
-        <v>0.226154</v>
+        <v>0.113448</v>
       </c>
       <c r="P42">
-        <v>0.128882</v>
+        <v>1.61309</v>
       </c>
       <c r="Q42">
-        <v>0.154136</v>
+        <v>0.722698</v>
       </c>
       <c r="R42">
-        <v>0.040532</v>
+        <v>0.579986</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>1.76789</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ENSMUSG00000051617</t>
+          <t>ENSMUSG00000002274</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Krt9</t>
+          <t>Metrn</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>chr11:100186780-100193246</t>
+          <t>chr17:25794570-25797136</t>
         </is>
       </c>
       <c r="D43">
-        <v>0.0659822</v>
+        <v>50.6663</v>
       </c>
       <c r="E43">
-        <v>0.0958474</v>
+        <v>41.8302</v>
       </c>
       <c r="F43">
-        <v>3.41084</v>
+        <v>12.5803</v>
       </c>
       <c r="G43">
-        <v>3.38548</v>
+        <v>10.2101</v>
       </c>
       <c r="H43">
-        <v>1.54584</v>
+        <v>17.5447</v>
       </c>
       <c r="I43">
-        <v>3.80276</v>
+        <v>10.3305</v>
       </c>
       <c r="J43">
-        <v>0.287236</v>
+        <v>12.6007</v>
       </c>
       <c r="K43">
-        <v>1.53176</v>
+        <v>9.16193</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>127.893</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>92.0334</v>
       </c>
       <c r="N43">
-        <v>0.0108974</v>
+        <v>28.6152</v>
       </c>
       <c r="O43">
-        <v>0.0234499</v>
+        <v>20.4238</v>
       </c>
       <c r="P43">
-        <v>0.0300395</v>
+        <v>31.3042</v>
       </c>
       <c r="Q43">
-        <v>0.0237017</v>
+        <v>19.261</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>32.0776</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>26.1265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024565</t>
+          <t>ENSMUSG00000048013</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sall3</t>
+          <t>Krt35</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>chr18:80966375-80986578</t>
+          <t>chr11:100092192-100096225</t>
         </is>
       </c>
       <c r="D44">
-        <v>2.64523</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2.09005</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>8.266120000000001</v>
+        <v>0.446139</v>
       </c>
       <c r="G44">
-        <v>7.09031</v>
+        <v>0.390179</v>
       </c>
       <c r="H44">
-        <v>2.02971</v>
+        <v>2.19309</v>
       </c>
       <c r="I44">
-        <v>3.99273</v>
+        <v>1.35813</v>
       </c>
       <c r="J44">
-        <v>0.672623</v>
+        <v>10.1133</v>
       </c>
       <c r="K44">
-        <v>0.885458</v>
+        <v>3.08181</v>
       </c>
       <c r="L44">
-        <v>5.99063</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>10.4487</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>27.0823</v>
+        <v>0.0489813</v>
       </c>
       <c r="O44">
-        <v>17.2558</v>
+        <v>0.105402</v>
       </c>
       <c r="P44">
-        <v>3.72541</v>
+        <v>0.832629</v>
       </c>
       <c r="Q44">
-        <v>5.78114</v>
+        <v>0.390624</v>
       </c>
       <c r="R44">
-        <v>1.24375</v>
+        <v>0.170037</v>
       </c>
       <c r="S44">
-        <v>1.43844</v>
+        <v>0.470932</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ENSMUSG00000057777</t>
+          <t>ENSMUSG00000017491</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mab21l2</t>
+          <t>Rarb</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>chr3:86545580-86548283</t>
+          <t>chr14:16430838-16819156</t>
         </is>
       </c>
       <c r="D45">
-        <v>1.543</v>
+        <v>3.63445</v>
       </c>
       <c r="E45">
-        <v>0.786778</v>
+        <v>3.7077</v>
       </c>
       <c r="F45">
-        <v>6.64046</v>
+        <v>0.359542</v>
       </c>
       <c r="G45">
-        <v>3.64571</v>
+        <v>0.21618</v>
       </c>
       <c r="H45">
-        <v>3.408</v>
+        <v>0.169329</v>
       </c>
       <c r="I45">
-        <v>2.63787</v>
+        <v>0.248143</v>
       </c>
       <c r="J45">
-        <v>0.205624</v>
+        <v>0.24467</v>
       </c>
       <c r="K45">
-        <v>0.731027</v>
+        <v>0.326967</v>
       </c>
       <c r="L45">
-        <v>2.14383</v>
+        <v>16.4306</v>
       </c>
       <c r="M45">
-        <v>1.70893</v>
+        <v>15.8205</v>
       </c>
       <c r="N45">
-        <v>55.3568</v>
+        <v>0.0995099</v>
       </c>
       <c r="O45">
-        <v>36.2601</v>
+        <v>0.179997</v>
       </c>
       <c r="P45">
-        <v>21.3037</v>
+        <v>0.2743</v>
       </c>
       <c r="Q45">
-        <v>32.3737</v>
+        <v>0.3464</v>
       </c>
       <c r="R45">
-        <v>9.627409999999999</v>
+        <v>2.34596</v>
       </c>
       <c r="S45">
-        <v>12.0221</v>
+        <v>0.916388</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038156</t>
+          <t>ENSMUSG00000037060</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Spon1</t>
+          <t>Cavin3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>chr7:113765997-114043370</t>
+          <t>chr7:105480082-105482300</t>
         </is>
       </c>
       <c r="D46">
-        <v>1.37093</v>
+        <v>1.33155</v>
       </c>
       <c r="E46">
-        <v>0.7203040000000001</v>
+        <v>1.07128</v>
       </c>
       <c r="F46">
-        <v>4.89132</v>
+        <v>1.80696</v>
       </c>
       <c r="G46">
-        <v>4.78639</v>
+        <v>1.34755</v>
       </c>
       <c r="H46">
-        <v>0.6358819999999999</v>
+        <v>5.13913</v>
       </c>
       <c r="I46">
-        <v>1.898</v>
+        <v>2.57407</v>
       </c>
       <c r="J46">
-        <v>0.192454</v>
+        <v>12.4403</v>
       </c>
       <c r="K46">
-        <v>0.329885</v>
+        <v>6.4201</v>
       </c>
       <c r="L46">
-        <v>0.378983</v>
+        <v>6.62458</v>
       </c>
       <c r="M46">
-        <v>0.32598</v>
+        <v>3.65541</v>
       </c>
       <c r="N46">
-        <v>0.303333</v>
+        <v>6.12378</v>
       </c>
       <c r="O46">
-        <v>0.189209</v>
+        <v>3.1306</v>
       </c>
       <c r="P46">
-        <v>0.201271</v>
+        <v>8.34709</v>
       </c>
       <c r="Q46">
-        <v>0.188583</v>
+        <v>4.67274</v>
       </c>
       <c r="R46">
-        <v>0.124754</v>
+        <v>12.2442</v>
       </c>
       <c r="S46">
-        <v>0.131626</v>
+        <v>5.36727</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ENSMUSG00000026042</t>
+          <t>ENSMUSG00000004044</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Col5a2</t>
+          <t>Cavin1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>chr1:45374320-45503282</t>
+          <t>chr11:100956732-100970887</t>
         </is>
       </c>
       <c r="D47">
-        <v>3.80296</v>
+        <v>0.682691</v>
       </c>
       <c r="E47">
-        <v>2.23211</v>
+        <v>0.283341</v>
       </c>
       <c r="F47">
-        <v>39.3218</v>
+        <v>2.22067</v>
       </c>
       <c r="G47">
-        <v>47.0322</v>
+        <v>2.02086</v>
       </c>
       <c r="H47">
-        <v>45.1288</v>
+        <v>7.80499</v>
       </c>
       <c r="I47">
-        <v>37.2039</v>
+        <v>5.0816</v>
       </c>
       <c r="J47">
-        <v>42.9932</v>
+        <v>30.5577</v>
       </c>
       <c r="K47">
-        <v>35.6888</v>
+        <v>16.6894</v>
       </c>
       <c r="L47">
-        <v>10.7367</v>
+        <v>11.8788</v>
       </c>
       <c r="M47">
-        <v>8.889849999999999</v>
+        <v>8.643840000000001</v>
       </c>
       <c r="N47">
-        <v>29.6388</v>
+        <v>7.94088</v>
       </c>
       <c r="O47">
-        <v>25.3509</v>
+        <v>5.47643</v>
       </c>
       <c r="P47">
-        <v>38.8855</v>
+        <v>8.6915</v>
       </c>
       <c r="Q47">
-        <v>26.537</v>
+        <v>5.43014</v>
       </c>
       <c r="R47">
-        <v>91.327</v>
+        <v>11.952</v>
       </c>
       <c r="S47">
-        <v>46.2436</v>
+        <v>8.06399</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ENSMUSG00000078252</t>
+          <t>ENSMUSG00000000805</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Krtap17-1</t>
+          <t>Car4</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>chr11:99993233-99993994</t>
+          <t>chr11:84957787-84966044</t>
         </is>
       </c>
       <c r="D48">
-        <v>0.559244</v>
+        <v>2.44831</v>
       </c>
       <c r="E48">
-        <v>0.12998</v>
+        <v>3.34703</v>
       </c>
       <c r="F48">
-        <v>5.41475</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>4.92954</v>
+        <v>0.0764895</v>
       </c>
       <c r="H48">
-        <v>9.414910000000001</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>11.4682</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>2.92143</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>3.19003</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1.78849</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>3.2793</v>
       </c>
       <c r="N48">
-        <v>0.110835</v>
+        <v>0.0384085</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0.101842</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>0.0803553</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>0.144285</v>
+        <v>0</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -3512,1360 +3512,1360 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ENSMUSG00000009734</t>
+          <t>ENSMUSG00000025491</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pou6f2</t>
+          <t>Ifitm1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>chr13:18121097-18382041</t>
+          <t>chr7:140967220-140969825</t>
         </is>
       </c>
       <c r="D49">
-        <v>0.6670469999999999</v>
+        <v>4.01078</v>
       </c>
       <c r="E49">
-        <v>0.385782</v>
+        <v>3.19732</v>
       </c>
       <c r="F49">
-        <v>2.79831</v>
+        <v>3.96432</v>
       </c>
       <c r="G49">
-        <v>4.56254</v>
+        <v>4.56822</v>
       </c>
       <c r="H49">
-        <v>1.51247</v>
+        <v>25.0042</v>
       </c>
       <c r="I49">
-        <v>3.97648</v>
+        <v>11.108</v>
       </c>
       <c r="J49">
-        <v>0.407613</v>
+        <v>32.501</v>
       </c>
       <c r="K49">
-        <v>0.662417</v>
+        <v>20.4755</v>
       </c>
       <c r="L49">
-        <v>0.00605944</v>
+        <v>2.74763</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>4.03466</v>
       </c>
       <c r="N49">
-        <v>0.0376313</v>
+        <v>24.6751</v>
       </c>
       <c r="O49">
-        <v>0.0101222</v>
+        <v>28.0532</v>
       </c>
       <c r="P49">
-        <v>0.0453889</v>
+        <v>64.7383</v>
       </c>
       <c r="Q49">
-        <v>0.0306929</v>
+        <v>40.419</v>
       </c>
       <c r="R49">
-        <v>0.0574696</v>
+        <v>51.0394</v>
       </c>
       <c r="S49">
-        <v>0.00969126</v>
+        <v>40.6295</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028364</t>
+          <t>ENSMUSG00000024501</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tnc</t>
+          <t>Dpysl3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>chr4:63959784-64047015</t>
+          <t>chr18:43320978-43438286</t>
         </is>
       </c>
       <c r="D50">
-        <v>3.9912</v>
+        <v>5.87026</v>
       </c>
       <c r="E50">
-        <v>3.03305</v>
+        <v>6.30594</v>
       </c>
       <c r="F50">
-        <v>0.210224</v>
+        <v>6.90347</v>
       </c>
       <c r="G50">
-        <v>0.236484</v>
+        <v>6.4285</v>
       </c>
       <c r="H50">
-        <v>1.43568</v>
+        <v>17.231</v>
       </c>
       <c r="I50">
-        <v>0.267132</v>
+        <v>13.4359</v>
       </c>
       <c r="J50">
-        <v>4.09103</v>
+        <v>35.96</v>
       </c>
       <c r="K50">
-        <v>0.747363</v>
+        <v>27.6936</v>
       </c>
       <c r="L50">
-        <v>4.84397</v>
+        <v>13.5717</v>
       </c>
       <c r="M50">
-        <v>4.2408</v>
+        <v>14.3785</v>
       </c>
       <c r="N50">
-        <v>0.293224</v>
+        <v>6.44918</v>
       </c>
       <c r="O50">
-        <v>0.550343</v>
+        <v>9.12072</v>
       </c>
       <c r="P50">
-        <v>0.94975</v>
+        <v>16.3127</v>
       </c>
       <c r="Q50">
-        <v>0.806133</v>
+        <v>11.7761</v>
       </c>
       <c r="R50">
-        <v>29.0142</v>
+        <v>17.906</v>
       </c>
       <c r="S50">
-        <v>5.47723</v>
+        <v>10.7963</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036103</t>
+          <t>ENSMUSG00000000690</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Colec12</t>
+          <t>Hoxb6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>chr18:9707647-9877995</t>
+          <t>chr11:96292475-96301569</t>
         </is>
       </c>
       <c r="D51">
-        <v>28.5944</v>
+        <v>4.77372</v>
       </c>
       <c r="E51">
-        <v>26.6045</v>
+        <v>3.58135</v>
       </c>
       <c r="F51">
-        <v>61.3264</v>
+        <v>0.105739</v>
       </c>
       <c r="G51">
-        <v>55.4345</v>
+        <v>0.296694</v>
       </c>
       <c r="H51">
-        <v>20.5476</v>
+        <v>0.0534354</v>
       </c>
       <c r="I51">
-        <v>34.2214</v>
+        <v>0.129541</v>
       </c>
       <c r="J51">
-        <v>7.96392</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>13.2898</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>9.85563</v>
+        <v>22.8737</v>
       </c>
       <c r="M51">
-        <v>13.2248</v>
+        <v>25.1512</v>
       </c>
       <c r="N51">
-        <v>3.19068</v>
+        <v>0.297966</v>
       </c>
       <c r="O51">
-        <v>3.05964</v>
+        <v>0.183196</v>
       </c>
       <c r="P51">
-        <v>3.83777</v>
+        <v>0.0293342</v>
       </c>
       <c r="Q51">
-        <v>4.12333</v>
+        <v>0.0462903</v>
       </c>
       <c r="R51">
-        <v>11.2159</v>
+        <v>0.0277062</v>
       </c>
       <c r="S51">
-        <v>5.05664</v>
+        <v>0.0876977</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ENSMUSG00000074934</t>
+          <t>ENSMUSG00000050917</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Grem1</t>
+          <t>Fgf4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>chr2:113746163-113758646</t>
+          <t>chr7:144847366-144865243</t>
         </is>
       </c>
       <c r="D52">
-        <v>0.513</v>
+        <v>1.34839</v>
       </c>
       <c r="E52">
-        <v>0.8942369999999999</v>
+        <v>0.424386</v>
       </c>
       <c r="F52">
-        <v>3.63685</v>
+        <v>62.6956</v>
       </c>
       <c r="G52">
-        <v>1.93025</v>
+        <v>26.2583</v>
       </c>
       <c r="H52">
-        <v>0.850876</v>
+        <v>0.605711</v>
       </c>
       <c r="I52">
-        <v>4.8818</v>
+        <v>8.735049999999999</v>
       </c>
       <c r="J52">
-        <v>0.0357314</v>
+        <v>0.53807</v>
       </c>
       <c r="K52">
-        <v>0.108884</v>
+        <v>0.279486</v>
       </c>
       <c r="L52">
-        <v>4.81965</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>6.29429</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>12.1733</v>
+        <v>0.222695</v>
       </c>
       <c r="O52">
-        <v>11.2892</v>
+        <v>0.241761</v>
       </c>
       <c r="P52">
-        <v>2.92408</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>13.666</v>
+        <v>0.0807266</v>
       </c>
       <c r="R52">
-        <v>0.441181</v>
+        <v>0.0120793</v>
       </c>
       <c r="S52">
-        <v>1.27077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ENSMUSG00000042988</t>
+          <t>ENSMUSG00000028681</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Notum</t>
+          <t>Ptch2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>chr11:120653787-120661175</t>
+          <t>chr4:117096074-117115383</t>
         </is>
       </c>
       <c r="D53">
-        <v>16.7981</v>
+        <v>0.524454</v>
       </c>
       <c r="E53">
-        <v>18.9966</v>
+        <v>0.259588</v>
       </c>
       <c r="F53">
-        <v>63.0288</v>
+        <v>10.041</v>
       </c>
       <c r="G53">
-        <v>57.3699</v>
+        <v>17.1601</v>
       </c>
       <c r="H53">
-        <v>15.3367</v>
+        <v>6.37908</v>
       </c>
       <c r="I53">
-        <v>28.5526</v>
+        <v>24.6806</v>
       </c>
       <c r="J53">
-        <v>15.6549</v>
+        <v>0.7694800000000001</v>
       </c>
       <c r="K53">
-        <v>11.2272</v>
+        <v>1.27548</v>
       </c>
       <c r="L53">
-        <v>2.99173</v>
+        <v>0.669465</v>
       </c>
       <c r="M53">
-        <v>4.19788</v>
+        <v>0.527069</v>
       </c>
       <c r="N53">
-        <v>4.27783</v>
+        <v>5.85146</v>
       </c>
       <c r="O53">
-        <v>4.3738</v>
+        <v>6.64099</v>
       </c>
       <c r="P53">
-        <v>3.98947</v>
+        <v>1.60947</v>
       </c>
       <c r="Q53">
-        <v>2.98457</v>
+        <v>5.65174</v>
       </c>
       <c r="R53">
-        <v>3.17404</v>
+        <v>1.17769</v>
       </c>
       <c r="S53">
-        <v>4.52327</v>
+        <v>1.42763</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ENSMUSG00000042607</t>
+          <t>ENSMUSG00000031906</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Asb4</t>
+          <t>Smpd3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>chr6:5383385-5433022</t>
+          <t>chr8:106252547-106337988</t>
         </is>
       </c>
       <c r="D54">
-        <v>23.7054</v>
+        <v>4.60664</v>
       </c>
       <c r="E54">
-        <v>21.9741</v>
+        <v>2.16164</v>
       </c>
       <c r="F54">
-        <v>17.4596</v>
+        <v>31.3193</v>
       </c>
       <c r="G54">
-        <v>29.2858</v>
+        <v>24.4119</v>
       </c>
       <c r="H54">
-        <v>31.3117</v>
+        <v>5.03843</v>
       </c>
       <c r="I54">
-        <v>9.49578</v>
+        <v>14.7569</v>
       </c>
       <c r="J54">
-        <v>1.06369</v>
+        <v>1.48299</v>
       </c>
       <c r="K54">
-        <v>1.87198</v>
+        <v>0.943129</v>
       </c>
       <c r="L54">
-        <v>155.561</v>
+        <v>0.189951</v>
       </c>
       <c r="M54">
-        <v>160.526</v>
+        <v>0.180741</v>
       </c>
       <c r="N54">
-        <v>300.696</v>
+        <v>0.23484</v>
       </c>
       <c r="O54">
-        <v>231.324</v>
+        <v>0.270302</v>
       </c>
       <c r="P54">
-        <v>101.947</v>
+        <v>0.227052</v>
       </c>
       <c r="Q54">
-        <v>142.754</v>
+        <v>0.142542</v>
       </c>
       <c r="R54">
-        <v>29.7138</v>
+        <v>0.104357</v>
       </c>
       <c r="S54">
-        <v>56.6617</v>
+        <v>0.156023</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ENSMUSG00000049382</t>
+          <t>ENSMUSG00000064294</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Krt8</t>
+          <t>Aox3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>chr15:101996697-102004482</t>
+          <t>chr1:58113135-58200698</t>
         </is>
       </c>
       <c r="D55">
-        <v>73.42319999999999</v>
+        <v>0.23065</v>
       </c>
       <c r="E55">
-        <v>54.5848</v>
+        <v>0.0536878</v>
       </c>
       <c r="F55">
-        <v>121.598</v>
+        <v>10.9383</v>
       </c>
       <c r="G55">
-        <v>79.8396</v>
+        <v>20.6887</v>
       </c>
       <c r="H55">
-        <v>33.2755</v>
+        <v>4.83533</v>
       </c>
       <c r="I55">
-        <v>73.006</v>
+        <v>14.6513</v>
       </c>
       <c r="J55">
-        <v>13.2469</v>
+        <v>1.76604</v>
       </c>
       <c r="K55">
-        <v>17.7615</v>
+        <v>4.12147</v>
       </c>
       <c r="L55">
-        <v>2.57109</v>
+        <v>0.00786306</v>
       </c>
       <c r="M55">
-        <v>3.25667</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>2.19695</v>
+        <v>0.0671446</v>
       </c>
       <c r="O55">
-        <v>0.617984</v>
+        <v>0.09194629999999999</v>
       </c>
       <c r="P55">
-        <v>1.30621</v>
+        <v>0.158212</v>
       </c>
       <c r="Q55">
-        <v>0.999394</v>
+        <v>0.0655515</v>
       </c>
       <c r="R55">
-        <v>0.766402</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>0.41417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ENSMUSG00000034226</t>
+          <t>ENSMUSG00000025407</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Rhov</t>
+          <t>Gli1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>chr2:119269200-119271272</t>
+          <t>chr10:127329881-127341974</t>
         </is>
       </c>
       <c r="D56">
-        <v>0.399845</v>
+        <v>0.305053</v>
       </c>
       <c r="E56">
-        <v>0.116165</v>
+        <v>0.182859</v>
       </c>
       <c r="F56">
-        <v>14.9689</v>
+        <v>5.81968</v>
       </c>
       <c r="G56">
-        <v>15.6169</v>
+        <v>12.2123</v>
       </c>
       <c r="H56">
-        <v>9.346880000000001</v>
+        <v>7.22751</v>
       </c>
       <c r="I56">
-        <v>16.8813</v>
+        <v>14.1718</v>
       </c>
       <c r="J56">
-        <v>18.2547</v>
+        <v>0.536633</v>
       </c>
       <c r="K56">
-        <v>19.2276</v>
+        <v>1.28025</v>
       </c>
       <c r="L56">
-        <v>0.0212667</v>
+        <v>0.705241</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>0.668299</v>
       </c>
       <c r="N56">
-        <v>0.132074</v>
+        <v>9.655469999999999</v>
       </c>
       <c r="O56">
-        <v>0.0710518</v>
+        <v>18.6634</v>
       </c>
       <c r="P56">
-        <v>0.318564</v>
+        <v>12.0866</v>
       </c>
       <c r="Q56">
-        <v>0.251352</v>
+        <v>18.5722</v>
       </c>
       <c r="R56">
-        <v>0.107459</v>
+        <v>4.20404</v>
       </c>
       <c r="S56">
-        <v>0.272106</v>
+        <v>4.00502</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038540</t>
+          <t>ENSMUSG00000025219</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tmc3</t>
+          <t>Fgf8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>chr7:83584930-83625614</t>
+          <t>chr19:45736797-45742915</t>
         </is>
       </c>
       <c r="D57">
-        <v>0.177869</v>
+        <v>279.809</v>
       </c>
       <c r="E57">
-        <v>0.111301</v>
+        <v>164.964</v>
       </c>
       <c r="F57">
-        <v>1.80927</v>
+        <v>1179.7</v>
       </c>
       <c r="G57">
-        <v>3.76238</v>
+        <v>769.556</v>
       </c>
       <c r="H57">
-        <v>1.45013</v>
+        <v>153.809</v>
       </c>
       <c r="I57">
-        <v>5.75904</v>
+        <v>346.789</v>
       </c>
       <c r="J57">
-        <v>0.380339</v>
+        <v>49.1851</v>
       </c>
       <c r="K57">
-        <v>1.42718</v>
+        <v>60.9514</v>
       </c>
       <c r="L57">
-        <v>0.121495</v>
+        <v>0.722456</v>
       </c>
       <c r="M57">
-        <v>0.161419</v>
+        <v>0.159388</v>
       </c>
       <c r="N57">
-        <v>0.0361577</v>
+        <v>6.80512</v>
       </c>
       <c r="O57">
-        <v>0.0194663</v>
+        <v>3.13541</v>
       </c>
       <c r="P57">
-        <v>0.0249163</v>
+        <v>3.33805</v>
       </c>
       <c r="Q57">
-        <v>0.108126</v>
+        <v>1.67492</v>
       </c>
       <c r="R57">
-        <v>0.022171</v>
+        <v>0.232383</v>
       </c>
       <c r="S57">
-        <v>0.0372646</v>
+        <v>0.0548465</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028766</t>
+          <t>ENSMUSG00000001473</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Alpl</t>
+          <t>Tubb6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>chr4:137741732-137796384</t>
+          <t>chr18:67390716-67402748</t>
         </is>
       </c>
       <c r="D58">
-        <v>21.0828</v>
+        <v>57.6974</v>
       </c>
       <c r="E58">
-        <v>14.3503</v>
+        <v>41.0408</v>
       </c>
       <c r="F58">
-        <v>34.416</v>
+        <v>155.503</v>
       </c>
       <c r="G58">
-        <v>25.3621</v>
+        <v>100.191</v>
       </c>
       <c r="H58">
-        <v>4.50626</v>
+        <v>14.6842</v>
       </c>
       <c r="I58">
-        <v>9.36021</v>
+        <v>34.0235</v>
       </c>
       <c r="J58">
-        <v>2.65681</v>
+        <v>4.11236</v>
       </c>
       <c r="K58">
-        <v>2.62427</v>
+        <v>4.04865</v>
       </c>
       <c r="L58">
-        <v>2.9206</v>
+        <v>62.1898</v>
       </c>
       <c r="M58">
-        <v>3.37368</v>
+        <v>42.9792</v>
       </c>
       <c r="N58">
-        <v>1.62761</v>
+        <v>24.8189</v>
       </c>
       <c r="O58">
-        <v>0.854971</v>
+        <v>19.2142</v>
       </c>
       <c r="P58">
-        <v>1.19849</v>
+        <v>20.6437</v>
       </c>
       <c r="Q58">
-        <v>1.34153</v>
+        <v>17.6456</v>
       </c>
       <c r="R58">
-        <v>1.84389</v>
+        <v>13.9569</v>
       </c>
       <c r="S58">
-        <v>1.0797</v>
+        <v>9.26399</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031613</t>
+          <t>ENSMUSG00000016763</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Hpgd</t>
+          <t>Scube1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>chr8:56294584-56321043</t>
+          <t>chr15:83605002-83725021</t>
         </is>
       </c>
       <c r="D59">
-        <v>0.151724</v>
+        <v>9.82052</v>
       </c>
       <c r="E59">
-        <v>0.176318</v>
+        <v>8.77416</v>
       </c>
       <c r="F59">
-        <v>0.290486</v>
+        <v>65.0258</v>
       </c>
       <c r="G59">
-        <v>0.166342</v>
+        <v>63.9703</v>
       </c>
       <c r="H59">
-        <v>4.21519</v>
+        <v>27.7086</v>
       </c>
       <c r="I59">
-        <v>1.32181</v>
+        <v>48.4275</v>
       </c>
       <c r="J59">
-        <v>11.4485</v>
+        <v>7.51252</v>
       </c>
       <c r="K59">
-        <v>13.787</v>
+        <v>11.6073</v>
       </c>
       <c r="L59">
-        <v>0.516467</v>
+        <v>30.2723</v>
       </c>
       <c r="M59">
-        <v>0.357997</v>
+        <v>38.6682</v>
       </c>
       <c r="N59">
-        <v>0.701628</v>
+        <v>41.0739</v>
       </c>
       <c r="O59">
-        <v>1.40198</v>
+        <v>35.7275</v>
       </c>
       <c r="P59">
-        <v>2.44065</v>
+        <v>32.1921</v>
       </c>
       <c r="Q59">
-        <v>1.74404</v>
+        <v>30.1664</v>
       </c>
       <c r="R59">
-        <v>1.892</v>
+        <v>7.79259</v>
       </c>
       <c r="S59">
-        <v>2.78782</v>
+        <v>23.8929</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021835</t>
+          <t>ENSMUSG00000028255</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Bmp4</t>
+          <t>Clca1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>chr14:46383519-46390669</t>
+          <t>chr3:145003816-145032776</t>
         </is>
       </c>
       <c r="D60">
-        <v>54.5309</v>
+        <v>1.1411</v>
       </c>
       <c r="E60">
-        <v>36.0739</v>
+        <v>0.108251</v>
       </c>
       <c r="F60">
-        <v>171.165</v>
+        <v>9.687939999999999</v>
       </c>
       <c r="G60">
-        <v>162.936</v>
+        <v>6.52587</v>
       </c>
       <c r="H60">
-        <v>87.0331</v>
+        <v>1.58366</v>
       </c>
       <c r="I60">
-        <v>115.417</v>
+        <v>3.80796</v>
       </c>
       <c r="J60">
-        <v>58.6959</v>
+        <v>0.324408</v>
       </c>
       <c r="K60">
-        <v>56.218</v>
+        <v>0.200802</v>
       </c>
       <c r="L60">
-        <v>28.2628</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>28.8556</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>60.8993</v>
+        <v>0.0461536</v>
       </c>
       <c r="O60">
-        <v>72.6695</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>39.4082</v>
+        <v>0.0212044</v>
       </c>
       <c r="Q60">
-        <v>68.7623</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>28.0466</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>29.5906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027868</t>
+          <t>ENSMUSG00000031073</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tbx15</t>
+          <t>Fgf15</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>chr3:99240380-99354259</t>
+          <t>chr7:144896530-144900953</t>
         </is>
       </c>
       <c r="D61">
-        <v>0.983657</v>
+        <v>0.329182</v>
       </c>
       <c r="E61">
-        <v>0.540896</v>
+        <v>0.1093</v>
       </c>
       <c r="F61">
-        <v>3.76041</v>
+        <v>25.7371</v>
       </c>
       <c r="G61">
-        <v>3.92532</v>
+        <v>3.68116</v>
       </c>
       <c r="H61">
-        <v>5.90881</v>
+        <v>0.0389993</v>
       </c>
       <c r="I61">
-        <v>1.79184</v>
+        <v>0.252118</v>
       </c>
       <c r="J61">
-        <v>0.21882</v>
+        <v>0.07011009999999999</v>
       </c>
       <c r="K61">
-        <v>0.474954</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>10.1463</v>
+        <v>0.407059</v>
       </c>
       <c r="M61">
-        <v>13.1084</v>
+        <v>0.388362</v>
       </c>
       <c r="N61">
-        <v>46.368</v>
+        <v>0.279599</v>
       </c>
       <c r="O61">
-        <v>59.3981</v>
+        <v>0.327401</v>
       </c>
       <c r="P61">
-        <v>21.4808</v>
+        <v>0.0214094</v>
       </c>
       <c r="Q61">
-        <v>47.1362</v>
+        <v>0.312264</v>
       </c>
       <c r="R61">
-        <v>3.89055</v>
+        <v>0.08088480000000001</v>
       </c>
       <c r="S61">
-        <v>17.5918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ENSMUSG00000057092</t>
+          <t>ENSMUSG00000039601</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Fxyd3</t>
+          <t>Rcan2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>chr7:31068171-31076704</t>
+          <t>chr17:43801350-44039516</t>
         </is>
       </c>
       <c r="D62">
-        <v>10.7502</v>
+        <v>2.17326</v>
       </c>
       <c r="E62">
-        <v>7.17848</v>
+        <v>1.05479</v>
       </c>
       <c r="F62">
-        <v>50.1551</v>
+        <v>24.2038</v>
       </c>
       <c r="G62">
-        <v>66.1229</v>
+        <v>16.9313</v>
       </c>
       <c r="H62">
-        <v>37.4014</v>
+        <v>9.203569999999999</v>
       </c>
       <c r="I62">
-        <v>59.3514</v>
+        <v>13.2253</v>
       </c>
       <c r="J62">
-        <v>38.2068</v>
+        <v>5.64398</v>
       </c>
       <c r="K62">
-        <v>36.5868</v>
+        <v>4.89321</v>
       </c>
       <c r="L62">
-        <v>0.105898</v>
+        <v>0.278497</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>0.29319</v>
       </c>
       <c r="N62">
-        <v>0.255339</v>
+        <v>0.601445</v>
       </c>
       <c r="O62">
-        <v>0.491619</v>
+        <v>0.378378</v>
       </c>
       <c r="P62">
-        <v>0.439879</v>
+        <v>0.945362</v>
       </c>
       <c r="Q62">
-        <v>0.285397</v>
+        <v>0.454926</v>
       </c>
       <c r="R62">
-        <v>0.012647</v>
+        <v>1.04909</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>0.812072</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ENSMUSG00000058914</t>
+          <t>ENSMUSG00000052981</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>C1qtnf3</t>
+          <t>Ube2ql1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>chr15:10952331-10980150</t>
+          <t>chr13:69702831-69739889</t>
         </is>
       </c>
       <c r="D63">
-        <v>0.291933</v>
+        <v>3.05581</v>
       </c>
       <c r="E63">
-        <v>0.444228</v>
+        <v>1.29469</v>
       </c>
       <c r="F63">
-        <v>5.03509</v>
+        <v>22.462</v>
       </c>
       <c r="G63">
-        <v>4.73508</v>
+        <v>14.0081</v>
       </c>
       <c r="H63">
-        <v>1.78619</v>
+        <v>6.53354</v>
       </c>
       <c r="I63">
-        <v>5.70609</v>
+        <v>11.7539</v>
       </c>
       <c r="J63">
-        <v>1.50025</v>
+        <v>3.61666</v>
       </c>
       <c r="K63">
-        <v>2.74094</v>
+        <v>2.91359</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>0.799109</v>
       </c>
       <c r="M63">
-        <v>0.0240465</v>
+        <v>0.976392</v>
       </c>
       <c r="N63">
-        <v>0.144304</v>
+        <v>0.893716</v>
       </c>
       <c r="O63">
-        <v>0.115898</v>
+        <v>0.543013</v>
       </c>
       <c r="P63">
-        <v>0.0556767</v>
+        <v>1.04341</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>0.777529</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>2.24475</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1.10477</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029449</t>
+          <t>ENSMUSG00000022101</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rhof</t>
+          <t>Fgf17</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>chr5:123103043-123132692</t>
+          <t>chr14:70636202-70642268</t>
         </is>
       </c>
       <c r="D64">
-        <v>0.154197</v>
+        <v>1.99103</v>
       </c>
       <c r="E64">
-        <v>0.268789</v>
+        <v>1.43638</v>
       </c>
       <c r="F64">
-        <v>2.11927</v>
+        <v>14.7612</v>
       </c>
       <c r="G64">
-        <v>2.02738</v>
+        <v>12.1538</v>
       </c>
       <c r="H64">
-        <v>1.67644</v>
+        <v>3.22578</v>
       </c>
       <c r="I64">
-        <v>3.45835</v>
+        <v>8.3924</v>
       </c>
       <c r="J64">
-        <v>0.100689</v>
+        <v>2.2285</v>
       </c>
       <c r="K64">
-        <v>0.204551</v>
+        <v>1.30477</v>
       </c>
       <c r="L64">
-        <v>0.377263</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>0.250136</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>1.91</v>
+        <v>0.373415</v>
       </c>
       <c r="O64">
-        <v>3.42508</v>
+        <v>0.0716413</v>
       </c>
       <c r="P64">
-        <v>4.22426</v>
+        <v>0.115424</v>
       </c>
       <c r="Q64">
-        <v>5.4004</v>
+        <v>0.137312</v>
       </c>
       <c r="R64">
-        <v>0.364678</v>
+        <v>0</v>
       </c>
       <c r="S64">
-        <v>0.91819</v>
+        <v>0.0433557</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036466</t>
+          <t>ENSMUSG00000000938</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Megf11</t>
+          <t>Hoxa10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>chr9:64385625-64709205</t>
+          <t>chr6:52231196-52240854</t>
         </is>
       </c>
       <c r="D65">
-        <v>0.136456</v>
+        <v>1.1271</v>
       </c>
       <c r="E65">
-        <v>0.0917689</v>
+        <v>0.601703</v>
       </c>
       <c r="F65">
-        <v>4.34037</v>
+        <v>7.99548</v>
       </c>
       <c r="G65">
-        <v>2.81047</v>
+        <v>12.5539</v>
       </c>
       <c r="H65">
-        <v>1.23914</v>
+        <v>22.0701</v>
       </c>
       <c r="I65">
-        <v>0.402989</v>
+        <v>5.31727</v>
       </c>
       <c r="J65">
-        <v>0.323622</v>
+        <v>1.53059</v>
       </c>
       <c r="K65">
-        <v>0.104423</v>
+        <v>1.94489</v>
       </c>
       <c r="L65">
-        <v>0.051027</v>
+        <v>18.9675</v>
       </c>
       <c r="M65">
-        <v>0.0419611</v>
+        <v>17.1634</v>
       </c>
       <c r="N65">
-        <v>0.393294</v>
+        <v>83.22920000000001</v>
       </c>
       <c r="O65">
-        <v>0.8320959999999999</v>
+        <v>109.312</v>
       </c>
       <c r="P65">
-        <v>3.09369</v>
+        <v>65.3383</v>
       </c>
       <c r="Q65">
-        <v>2.08023</v>
+        <v>95.56100000000001</v>
       </c>
       <c r="R65">
-        <v>1.34986</v>
+        <v>59.206</v>
       </c>
       <c r="S65">
-        <v>1.0687</v>
+        <v>68.8023</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ENSMUSG00000079679</t>
+          <t>ENSMUSG00000038210</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Vwde</t>
+          <t>Hoxa11</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>chr6:13156298-13224965</t>
+          <t>chr6:52242105-52245810</t>
         </is>
       </c>
       <c r="D66">
-        <v>3.35483</v>
+        <v>0.595484</v>
       </c>
       <c r="E66">
-        <v>5.81278</v>
+        <v>0.670387</v>
       </c>
       <c r="F66">
-        <v>15.4358</v>
+        <v>8.15372</v>
       </c>
       <c r="G66">
-        <v>26.0812</v>
+        <v>5.94916</v>
       </c>
       <c r="H66">
-        <v>11.1821</v>
+        <v>2.39205</v>
       </c>
       <c r="I66">
-        <v>19.6879</v>
+        <v>1.59626</v>
       </c>
       <c r="J66">
-        <v>7.80098</v>
+        <v>0.226825</v>
       </c>
       <c r="K66">
-        <v>9.941789999999999</v>
+        <v>0.0987427</v>
       </c>
       <c r="L66">
-        <v>0.00643748</v>
+        <v>17.198</v>
       </c>
       <c r="M66">
-        <v>0.00892447</v>
+        <v>11.3722</v>
       </c>
       <c r="N66">
-        <v>0.154919</v>
+        <v>71.2531</v>
       </c>
       <c r="O66">
-        <v>0.06262180000000001</v>
+        <v>41.242</v>
       </c>
       <c r="P66">
-        <v>0.19286</v>
+        <v>8.40424</v>
       </c>
       <c r="Q66">
-        <v>0.130431</v>
+        <v>18.182</v>
       </c>
       <c r="R66">
-        <v>0.117101</v>
+        <v>4.8171</v>
       </c>
       <c r="S66">
-        <v>0.133847</v>
+        <v>6.35728</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ENSMUSG00000040723</t>
+          <t>ENSMUSG00000021466</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Rcsd1</t>
+          <t>Ptch1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>chr1:165646515-165709393</t>
+          <t>chr13:63508327-63573598</t>
         </is>
       </c>
       <c r="D67">
-        <v>3.08395</v>
+        <v>6.69799</v>
       </c>
       <c r="E67">
-        <v>2.58416</v>
+        <v>8.038729999999999</v>
       </c>
       <c r="F67">
-        <v>13.3931</v>
+        <v>26.2511</v>
       </c>
       <c r="G67">
-        <v>13.5472</v>
+        <v>35.9676</v>
       </c>
       <c r="H67">
-        <v>8.15225</v>
+        <v>12.6294</v>
       </c>
       <c r="I67">
-        <v>20.5381</v>
+        <v>44.4725</v>
       </c>
       <c r="J67">
-        <v>7.31881</v>
+        <v>5.83416</v>
       </c>
       <c r="K67">
-        <v>6.2805</v>
+        <v>8.14517</v>
       </c>
       <c r="L67">
-        <v>4.40981</v>
+        <v>3.70766</v>
       </c>
       <c r="M67">
-        <v>3.48161</v>
+        <v>5.65385</v>
       </c>
       <c r="N67">
-        <v>12.3094</v>
+        <v>16.5771</v>
       </c>
       <c r="O67">
-        <v>9.144830000000001</v>
+        <v>22.9063</v>
       </c>
       <c r="P67">
-        <v>5.9065</v>
+        <v>8.793990000000001</v>
       </c>
       <c r="Q67">
-        <v>5.85889</v>
+        <v>22.1799</v>
       </c>
       <c r="R67">
-        <v>3.79502</v>
+        <v>5.30486</v>
       </c>
       <c r="S67">
-        <v>3.70665</v>
+        <v>8.706160000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ENSMUSG00000047414</t>
+          <t>ENSMUSG00000042499</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Flrt2</t>
+          <t>Hoxd11</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>chr12:95692225-95785215</t>
+          <t>chr2:74682322-74684168</t>
         </is>
       </c>
       <c r="D68">
-        <v>2.19562</v>
+        <v>0.153226</v>
       </c>
       <c r="E68">
-        <v>2.08473</v>
+        <v>0.0890319</v>
       </c>
       <c r="F68">
-        <v>1.75449</v>
+        <v>7.48073</v>
       </c>
       <c r="G68">
-        <v>1.31173</v>
+        <v>3.22539</v>
       </c>
       <c r="H68">
-        <v>2.23607</v>
+        <v>16.4241</v>
       </c>
       <c r="I68">
-        <v>1.56685</v>
+        <v>2.77249</v>
       </c>
       <c r="J68">
-        <v>17.282</v>
+        <v>0.433569</v>
       </c>
       <c r="K68">
-        <v>7.95534</v>
+        <v>0.6606030000000001</v>
       </c>
       <c r="L68">
-        <v>5.44739</v>
+        <v>2.83609</v>
       </c>
       <c r="M68">
-        <v>7.25557</v>
+        <v>1.44617</v>
       </c>
       <c r="N68">
-        <v>3.83166</v>
+        <v>65.3913</v>
       </c>
       <c r="O68">
-        <v>4.26639</v>
+        <v>48.0302</v>
       </c>
       <c r="P68">
-        <v>4.15057</v>
+        <v>44.2968</v>
       </c>
       <c r="Q68">
-        <v>5.9179</v>
+        <v>42.3815</v>
       </c>
       <c r="R68">
-        <v>9.212479999999999</v>
+        <v>20.6227</v>
       </c>
       <c r="S68">
-        <v>6.96146</v>
+        <v>38.7381</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001657</t>
+          <t>ENSMUSG00000042808</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hoxc8</t>
+          <t>Gpx2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>chr15:102990606-102993821</t>
+          <t>chr12:76792334-76795554</t>
         </is>
       </c>
       <c r="D69">
-        <v>32.8074</v>
+        <v>16.2735</v>
       </c>
       <c r="E69">
-        <v>29.7326</v>
+        <v>9.316689999999999</v>
       </c>
       <c r="F69">
-        <v>34.9579</v>
+        <v>52.0372</v>
       </c>
       <c r="G69">
-        <v>31.0826</v>
+        <v>32.482</v>
       </c>
       <c r="H69">
-        <v>7.23647</v>
+        <v>28.0172</v>
       </c>
       <c r="I69">
-        <v>16.8864</v>
+        <v>45.2803</v>
       </c>
       <c r="J69">
-        <v>1.94392</v>
+        <v>8.0566</v>
       </c>
       <c r="K69">
-        <v>5.10765</v>
+        <v>6.13769</v>
       </c>
       <c r="L69">
-        <v>1.648</v>
+        <v>0.0339431</v>
       </c>
       <c r="M69">
-        <v>1.69335</v>
+        <v>0</v>
       </c>
       <c r="N69">
-        <v>0.225765</v>
+        <v>0.316198</v>
       </c>
       <c r="O69">
-        <v>0.09716379999999999</v>
+        <v>0.170105</v>
       </c>
       <c r="P69">
-        <v>0.186702</v>
+        <v>0.9079429999999999</v>
       </c>
       <c r="Q69">
-        <v>0.130943</v>
+        <v>0.573106</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -4877,2081 +4877,2081 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ENSMUSG00000071192</t>
+          <t>ENSMUSG00000029231</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Wfikkn1</t>
+          <t>Pdgfra</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>chr17:25877629-25880305</t>
+          <t>chr5:75152291-75198215</t>
         </is>
       </c>
       <c r="D70">
-        <v>14.5227</v>
+        <v>12.0124</v>
       </c>
       <c r="E70">
-        <v>14.7109</v>
+        <v>7.29833</v>
       </c>
       <c r="F70">
-        <v>0.493766</v>
+        <v>56.565</v>
       </c>
       <c r="G70">
-        <v>0.36743</v>
+        <v>65.0909</v>
       </c>
       <c r="H70">
-        <v>0.267254</v>
+        <v>23.899</v>
       </c>
       <c r="I70">
-        <v>0.305951</v>
+        <v>47.9912</v>
       </c>
       <c r="J70">
-        <v>0.0561132</v>
+        <v>13.9767</v>
       </c>
       <c r="K70">
-        <v>0.227991</v>
+        <v>23.4513</v>
       </c>
       <c r="L70">
-        <v>8.446429999999999</v>
+        <v>25.5016</v>
       </c>
       <c r="M70">
-        <v>5.9799</v>
+        <v>30.2289</v>
       </c>
       <c r="N70">
-        <v>0.22708</v>
+        <v>29.5449</v>
       </c>
       <c r="O70">
-        <v>0.213783</v>
+        <v>29.7963</v>
       </c>
       <c r="P70">
-        <v>0.312999</v>
+        <v>26.5391</v>
       </c>
       <c r="Q70">
-        <v>0.453099</v>
+        <v>38.6347</v>
       </c>
       <c r="R70">
-        <v>0.0554271</v>
+        <v>61.9467</v>
       </c>
       <c r="S70">
-        <v>0.233921</v>
+        <v>60.2423</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ENSMUSG00000035517</t>
+          <t>ENSMUSG00000050751</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tdrd7</t>
+          <t>Pgbd5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>chr4:45965333-46034761</t>
+          <t>chr8:124369048-124439658</t>
         </is>
       </c>
       <c r="D71">
-        <v>0.465742</v>
+        <v>0.369859</v>
       </c>
       <c r="E71">
-        <v>0.446527</v>
+        <v>0.679074</v>
       </c>
       <c r="F71">
-        <v>2.40573</v>
+        <v>8.29583</v>
       </c>
       <c r="G71">
-        <v>4.27235</v>
+        <v>5.45228</v>
       </c>
       <c r="H71">
-        <v>3.00471</v>
+        <v>0.381341</v>
       </c>
       <c r="I71">
-        <v>5.05512</v>
+        <v>2.1474</v>
       </c>
       <c r="J71">
-        <v>0.7806</v>
+        <v>0.437006</v>
       </c>
       <c r="K71">
-        <v>1.3902</v>
+        <v>0.376925</v>
       </c>
       <c r="L71">
-        <v>0.822438</v>
+        <v>0.405073</v>
       </c>
       <c r="M71">
-        <v>1.01695</v>
+        <v>0.437193</v>
       </c>
       <c r="N71">
-        <v>0.646146</v>
+        <v>0.366536</v>
       </c>
       <c r="O71">
-        <v>1.01055</v>
+        <v>0.367635</v>
       </c>
       <c r="P71">
-        <v>1.09202</v>
+        <v>0.408748</v>
       </c>
       <c r="Q71">
-        <v>1.10421</v>
+        <v>0.804985</v>
       </c>
       <c r="R71">
-        <v>1.20163</v>
+        <v>0.770952</v>
       </c>
       <c r="S71">
-        <v>1.71146</v>
+        <v>0.533281</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ENSMUSG00000020000</t>
+          <t>ENSMUSG00000031654</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Moxd1</t>
+          <t>Cbln1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>chr10:24223516-24302790</t>
+          <t>chr8:87468404-87472609</t>
         </is>
       </c>
       <c r="D72">
-        <v>3.91152</v>
+        <v>0.400786</v>
       </c>
       <c r="E72">
-        <v>4.27349</v>
+        <v>0.0353266</v>
       </c>
       <c r="F72">
-        <v>20.3647</v>
+        <v>4.24799</v>
       </c>
       <c r="G72">
-        <v>21.001</v>
+        <v>4.07584</v>
       </c>
       <c r="H72">
-        <v>5.5283</v>
+        <v>4.72716</v>
       </c>
       <c r="I72">
-        <v>10.2453</v>
+        <v>6.11979</v>
       </c>
       <c r="J72">
-        <v>8.453939999999999</v>
+        <v>0.675782</v>
       </c>
       <c r="K72">
-        <v>5.79178</v>
+        <v>0.677748</v>
       </c>
       <c r="L72">
-        <v>0.0937663</v>
+        <v>0.631161</v>
       </c>
       <c r="M72">
-        <v>0.129991</v>
+        <v>0.598139</v>
       </c>
       <c r="N72">
-        <v>0.22747</v>
+        <v>26.8589</v>
       </c>
       <c r="O72">
-        <v>0.039159</v>
+        <v>32.2917</v>
       </c>
       <c r="P72">
-        <v>0.225734</v>
+        <v>23.6376</v>
       </c>
       <c r="Q72">
-        <v>0.138528</v>
+        <v>28.1916</v>
       </c>
       <c r="R72">
-        <v>0.461947</v>
+        <v>5.23102</v>
       </c>
       <c r="S72">
-        <v>0.168713</v>
+        <v>11.7938</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ENSMUSG00000063415</t>
+          <t>ENSMUSG00000001823</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cyp26b1</t>
+          <t>Hoxd12</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>chr6:84571413-84593908</t>
+          <t>chr2:74675012-74677705</t>
         </is>
       </c>
       <c r="D73">
-        <v>79.20910000000001</v>
+        <v>0.13436</v>
       </c>
       <c r="E73">
-        <v>67.67619999999999</v>
+        <v>0.0195175</v>
       </c>
       <c r="F73">
-        <v>75.29940000000001</v>
+        <v>6.58722</v>
       </c>
       <c r="G73">
-        <v>64.9118</v>
+        <v>6.42987</v>
       </c>
       <c r="H73">
-        <v>51.6961</v>
+        <v>53.5126</v>
       </c>
       <c r="I73">
-        <v>30.9712</v>
+        <v>5.42501</v>
       </c>
       <c r="J73">
-        <v>7.01504</v>
+        <v>2.3396</v>
       </c>
       <c r="K73">
-        <v>6.61854</v>
+        <v>2.51758</v>
       </c>
       <c r="L73">
-        <v>5.09486</v>
+        <v>0.100048</v>
       </c>
       <c r="M73">
-        <v>4.49428</v>
+        <v>0.118885</v>
       </c>
       <c r="N73">
-        <v>173.917</v>
+        <v>99.5018</v>
       </c>
       <c r="O73">
-        <v>166.231</v>
+        <v>116.608</v>
       </c>
       <c r="P73">
-        <v>95.83459999999999</v>
+        <v>198.664</v>
       </c>
       <c r="Q73">
-        <v>134.194</v>
+        <v>158.933</v>
       </c>
       <c r="R73">
-        <v>114.246</v>
+        <v>84.2936</v>
       </c>
       <c r="S73">
-        <v>100.693</v>
+        <v>148.835</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024304</t>
+          <t>ENSMUSG00000032036</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cdh2</t>
+          <t>Kirrel3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>chr18:16588876-16809246</t>
+          <t>chr9:34485893-35036716</t>
         </is>
       </c>
       <c r="D74">
-        <v>15.9445</v>
+        <v>3.99702</v>
       </c>
       <c r="E74">
-        <v>11.8837</v>
+        <v>3.04118</v>
       </c>
       <c r="F74">
-        <v>20.6216</v>
+        <v>23.8894</v>
       </c>
       <c r="G74">
-        <v>21.7643</v>
+        <v>16.3831</v>
       </c>
       <c r="H74">
-        <v>16.8884</v>
+        <v>3.6799</v>
       </c>
       <c r="I74">
-        <v>19.2633</v>
+        <v>10.0025</v>
       </c>
       <c r="J74">
-        <v>2.65444</v>
+        <v>3.6198</v>
       </c>
       <c r="K74">
-        <v>6.93195</v>
+        <v>4.00153</v>
       </c>
       <c r="L74">
-        <v>24.3625</v>
+        <v>0.06864099999999999</v>
       </c>
       <c r="M74">
-        <v>29.4129</v>
+        <v>0.0717045</v>
       </c>
       <c r="N74">
-        <v>20.1811</v>
+        <v>0.286833</v>
       </c>
       <c r="O74">
-        <v>16.462</v>
+        <v>0.494678</v>
       </c>
       <c r="P74">
-        <v>13.7272</v>
+        <v>0.235337</v>
       </c>
       <c r="Q74">
-        <v>15.3137</v>
+        <v>0.382722</v>
       </c>
       <c r="R74">
-        <v>17.574</v>
+        <v>1.9432</v>
       </c>
       <c r="S74">
-        <v>15.406</v>
+        <v>0.407917</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022037</t>
+          <t>ENSMUSG00000001819</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Clu</t>
+          <t>Hoxd13</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>chr14:65968482-65981547</t>
+          <t>chr2:74668309-74671599</t>
         </is>
       </c>
       <c r="D75">
-        <v>5.48046</v>
+        <v>0.342799</v>
       </c>
       <c r="E75">
-        <v>2.51386</v>
+        <v>0.298775</v>
       </c>
       <c r="F75">
-        <v>16.1909</v>
+        <v>6.94754</v>
       </c>
       <c r="G75">
-        <v>15.7456</v>
+        <v>12.267</v>
       </c>
       <c r="H75">
-        <v>17.5879</v>
+        <v>94.6536</v>
       </c>
       <c r="I75">
-        <v>22.4737</v>
+        <v>13.1634</v>
       </c>
       <c r="J75">
-        <v>10.5233</v>
+        <v>5.61099</v>
       </c>
       <c r="K75">
-        <v>6.39426</v>
+        <v>8.66283</v>
       </c>
       <c r="L75">
-        <v>2.54121</v>
+        <v>3.07766</v>
       </c>
       <c r="M75">
-        <v>1.10962</v>
+        <v>2.70963</v>
       </c>
       <c r="N75">
-        <v>1.37813</v>
+        <v>129.298</v>
       </c>
       <c r="O75">
-        <v>1.13648</v>
+        <v>265.053</v>
       </c>
       <c r="P75">
-        <v>3.63993</v>
+        <v>318.03</v>
       </c>
       <c r="Q75">
-        <v>1.51206</v>
+        <v>376.63</v>
       </c>
       <c r="R75">
-        <v>3.53219</v>
+        <v>202.223</v>
       </c>
       <c r="S75">
-        <v>1.86508</v>
+        <v>395.838</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ENSMUSG00000070803</t>
+          <t>ENSMUSG00000032744</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cited4</t>
+          <t>Heyl</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>chr4:120666571-120667820</t>
+          <t>chr4:123233555-123249875</t>
         </is>
       </c>
       <c r="D76">
-        <v>16.2192</v>
+        <v>0.281409</v>
       </c>
       <c r="E76">
-        <v>8.39466</v>
+        <v>0.512341</v>
       </c>
       <c r="F76">
-        <v>26.6727</v>
+        <v>7.45054</v>
       </c>
       <c r="G76">
-        <v>16.4969</v>
+        <v>10.4527</v>
       </c>
       <c r="H76">
-        <v>8.420909999999999</v>
+        <v>4.58196</v>
       </c>
       <c r="I76">
-        <v>15.071</v>
+        <v>10.3974</v>
       </c>
       <c r="J76">
-        <v>4.21264</v>
+        <v>4.09981</v>
       </c>
       <c r="K76">
-        <v>3.66129</v>
+        <v>4.38011</v>
       </c>
       <c r="L76">
-        <v>8.351139999999999</v>
+        <v>0.007982639999999999</v>
       </c>
       <c r="M76">
-        <v>5.26612</v>
+        <v>0.121732</v>
       </c>
       <c r="N76">
-        <v>7.47339</v>
+        <v>0.111544</v>
       </c>
       <c r="O76">
-        <v>2.66416</v>
+        <v>0.10668</v>
       </c>
       <c r="P76">
-        <v>3.25769</v>
+        <v>0.136658</v>
       </c>
       <c r="Q76">
-        <v>1.76254</v>
+        <v>0.14826</v>
       </c>
       <c r="R76">
-        <v>0.527468</v>
+        <v>0.008067090000000001</v>
       </c>
       <c r="S76">
-        <v>1.2058</v>
+        <v>0.0255343</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ENSMUSG00000059049</t>
+          <t>ENSMUSG00000051920</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Frem1</t>
+          <t>Rspo2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>chr4:82897919-83052339</t>
+          <t>chr15:43020793-43170826</t>
         </is>
       </c>
       <c r="D77">
-        <v>7.77559</v>
+        <v>20.3003</v>
       </c>
       <c r="E77">
-        <v>7.65972</v>
+        <v>10.1726</v>
       </c>
       <c r="F77">
-        <v>11.1752</v>
+        <v>57.5621</v>
       </c>
       <c r="G77">
-        <v>21.5489</v>
+        <v>63.8234</v>
       </c>
       <c r="H77">
-        <v>12.9567</v>
+        <v>29.6186</v>
       </c>
       <c r="I77">
-        <v>25.5219</v>
+        <v>51.0409</v>
       </c>
       <c r="J77">
-        <v>3.8664</v>
+        <v>15.9092</v>
       </c>
       <c r="K77">
-        <v>7.83658</v>
+        <v>21.8334</v>
       </c>
       <c r="L77">
-        <v>2.07392</v>
+        <v>9.33165</v>
       </c>
       <c r="M77">
-        <v>3.3471</v>
+        <v>9.98817</v>
       </c>
       <c r="N77">
-        <v>8.02322</v>
+        <v>0.767166</v>
       </c>
       <c r="O77">
-        <v>12.813</v>
+        <v>0.622036</v>
       </c>
       <c r="P77">
-        <v>5.65872</v>
+        <v>0.676982</v>
       </c>
       <c r="Q77">
-        <v>10.0776</v>
+        <v>0.494581</v>
       </c>
       <c r="R77">
-        <v>2.68653</v>
+        <v>0.201296</v>
       </c>
       <c r="S77">
-        <v>5.36505</v>
+        <v>0.149915</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038580</t>
+          <t>ENSMUSG00000032265</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sct</t>
+          <t>Fam46a</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>chr7:141278330-141279133</t>
+          <t>chr9:85320438-85327348</t>
         </is>
       </c>
       <c r="D78">
-        <v>60.8083</v>
+        <v>3.54177</v>
       </c>
       <c r="E78">
-        <v>54.3575</v>
+        <v>2.49985</v>
       </c>
       <c r="F78">
-        <v>53.8159</v>
+        <v>19.8258</v>
       </c>
       <c r="G78">
-        <v>46.5412</v>
+        <v>22.251</v>
       </c>
       <c r="H78">
-        <v>17.5302</v>
+        <v>2.35772</v>
       </c>
       <c r="I78">
-        <v>35.6102</v>
+        <v>11.8557</v>
       </c>
       <c r="J78">
-        <v>5.03822</v>
+        <v>5.38745</v>
       </c>
       <c r="K78">
-        <v>6.1448</v>
+        <v>7.15098</v>
       </c>
       <c r="L78">
-        <v>0.930179</v>
+        <v>0.0660968</v>
       </c>
       <c r="M78">
-        <v>0.595309</v>
+        <v>0.210769</v>
       </c>
       <c r="N78">
-        <v>1.83066</v>
+        <v>0.148809</v>
       </c>
       <c r="O78">
-        <v>0.835302</v>
+        <v>0.0662457</v>
       </c>
       <c r="P78">
-        <v>2.14106</v>
+        <v>0.06365369999999999</v>
       </c>
       <c r="Q78">
-        <v>0.362552</v>
+        <v>0.133922</v>
       </c>
       <c r="R78">
-        <v>0.578379</v>
+        <v>0.213759</v>
       </c>
       <c r="S78">
-        <v>0.228494</v>
+        <v>0.194863</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ENSMUSG00000026688</t>
+          <t>ENSMUSG00000026676</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mgst3</t>
+          <t>Ccdc3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>chr1:167371965-167393841</t>
+          <t>chr2:5137775-5230878</t>
         </is>
       </c>
       <c r="D79">
-        <v>11.0955</v>
+        <v>6.75835</v>
       </c>
       <c r="E79">
-        <v>8.160220000000001</v>
+        <v>6.2794</v>
       </c>
       <c r="F79">
-        <v>46.8578</v>
+        <v>30.1337</v>
       </c>
       <c r="G79">
-        <v>32.1551</v>
+        <v>17.5102</v>
       </c>
       <c r="H79">
-        <v>15.9259</v>
+        <v>3.33115</v>
       </c>
       <c r="I79">
-        <v>25.2708</v>
+        <v>5.76823</v>
       </c>
       <c r="J79">
-        <v>20.4351</v>
+        <v>2.87268</v>
       </c>
       <c r="K79">
-        <v>10.6531</v>
+        <v>2.05103</v>
       </c>
       <c r="L79">
-        <v>9.07907</v>
+        <v>2.31953</v>
       </c>
       <c r="M79">
-        <v>6.81965</v>
+        <v>2.04973</v>
       </c>
       <c r="N79">
-        <v>10.2517</v>
+        <v>3.33803</v>
       </c>
       <c r="O79">
-        <v>7.22478</v>
+        <v>2.4019</v>
       </c>
       <c r="P79">
-        <v>10.3501</v>
+        <v>0.493459</v>
       </c>
       <c r="Q79">
-        <v>5.68582</v>
+        <v>0.641278</v>
       </c>
       <c r="R79">
-        <v>11.2771</v>
+        <v>1.59013</v>
       </c>
       <c r="S79">
-        <v>7.39239</v>
+        <v>0.325419</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038203</t>
+          <t>ENSMUSG00000046743</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hoxa13</t>
+          <t>Fat4</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>chr6:52257693-52260880</t>
+          <t>chr3:38886939-39011985</t>
         </is>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.433273</v>
       </c>
       <c r="E80">
-        <v>0.0206502</v>
+        <v>0.362279</v>
       </c>
       <c r="F80">
-        <v>1.83716</v>
+        <v>5.19397</v>
       </c>
       <c r="G80">
-        <v>5.49464</v>
+        <v>7.79261</v>
       </c>
       <c r="H80">
-        <v>23.3035</v>
+        <v>4.33155</v>
       </c>
       <c r="I80">
-        <v>5.0359</v>
+        <v>7.4254</v>
       </c>
       <c r="J80">
-        <v>2.65795</v>
+        <v>2.05175</v>
       </c>
       <c r="K80">
-        <v>2.13435</v>
+        <v>3.23478</v>
       </c>
       <c r="L80">
-        <v>0.181465</v>
+        <v>0.501362</v>
       </c>
       <c r="M80">
-        <v>0.104821</v>
+        <v>0.610899</v>
       </c>
       <c r="N80">
-        <v>60.7114</v>
+        <v>2.22004</v>
       </c>
       <c r="O80">
-        <v>75.9161</v>
+        <v>3.20362</v>
       </c>
       <c r="P80">
-        <v>73.99639999999999</v>
+        <v>9.30707</v>
       </c>
       <c r="Q80">
-        <v>86.5534</v>
+        <v>6.01293</v>
       </c>
       <c r="R80">
-        <v>95.3287</v>
+        <v>11.1648</v>
       </c>
       <c r="S80">
-        <v>82.1747</v>
+        <v>12.9592</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022108</t>
+          <t>ENSMUSG00000029830</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Itm2b</t>
+          <t>Svopl</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>chr14:73362225-73385289</t>
+          <t>chr6:37983738-38046996</t>
         </is>
       </c>
       <c r="D81">
-        <v>88.5795</v>
+        <v>6.58343</v>
       </c>
       <c r="E81">
-        <v>60.3755</v>
+        <v>3.49085</v>
       </c>
       <c r="F81">
-        <v>356.808</v>
+        <v>22.8179</v>
       </c>
       <c r="G81">
-        <v>354.166</v>
+        <v>16.1157</v>
       </c>
       <c r="H81">
-        <v>245.823</v>
+        <v>5.69841</v>
       </c>
       <c r="I81">
-        <v>276.237</v>
+        <v>10.2945</v>
       </c>
       <c r="J81">
-        <v>203.98</v>
+        <v>3.75859</v>
       </c>
       <c r="K81">
-        <v>217.194</v>
+        <v>3.41219</v>
       </c>
       <c r="L81">
-        <v>23.5592</v>
+        <v>0.535758</v>
       </c>
       <c r="M81">
-        <v>18.5809</v>
+        <v>0.551748</v>
       </c>
       <c r="N81">
-        <v>46.6405</v>
+        <v>0.90311</v>
       </c>
       <c r="O81">
-        <v>42.6359</v>
+        <v>0.818267</v>
       </c>
       <c r="P81">
-        <v>81.48220000000001</v>
+        <v>3.25928</v>
       </c>
       <c r="Q81">
-        <v>59.4295</v>
+        <v>1.65411</v>
       </c>
       <c r="R81">
-        <v>124.412</v>
+        <v>3.15574</v>
       </c>
       <c r="S81">
-        <v>94.0545</v>
+        <v>3.35405</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ENSMUSG00000005917</t>
+          <t>ENSMUSG00000032394</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Otx1</t>
+          <t>Igdcc3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>chr11:21994763-22002897</t>
+          <t>chr9:65141188-65185872</t>
         </is>
       </c>
       <c r="D82">
-        <v>0.1261</v>
+        <v>138.67</v>
       </c>
       <c r="E82">
-        <v>0.0709322</v>
+        <v>100.362</v>
       </c>
       <c r="F82">
-        <v>0.5759570000000001</v>
+        <v>89.9378</v>
       </c>
       <c r="G82">
-        <v>1.22463</v>
+        <v>51.3037</v>
       </c>
       <c r="H82">
-        <v>10.5045</v>
+        <v>4.42878</v>
       </c>
       <c r="I82">
-        <v>5.73016</v>
+        <v>13.4018</v>
       </c>
       <c r="J82">
-        <v>33.2825</v>
+        <v>0.680704</v>
       </c>
       <c r="K82">
-        <v>29.0884</v>
+        <v>1.88373</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>300.355</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>294.417</v>
       </c>
       <c r="N82">
-        <v>0.0100808</v>
+        <v>189.801</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>91.221</v>
       </c>
       <c r="P82">
-        <v>0.404499</v>
+        <v>1.98391</v>
       </c>
       <c r="Q82">
-        <v>0.1739</v>
+        <v>7.50832</v>
       </c>
       <c r="R82">
-        <v>0.0131231</v>
+        <v>0.47699</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>0.530118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ENSMUSG00000071553</t>
+          <t>ENSMUSG00000031074</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Cpa2</t>
+          <t>Fgf3</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>chr6:30541581-30564476</t>
+          <t>chr7:144838082-144844436</t>
         </is>
       </c>
       <c r="D83">
-        <v>8.830579999999999</v>
+        <v>0.333211</v>
       </c>
       <c r="E83">
-        <v>7.44709</v>
+        <v>0.279664</v>
       </c>
       <c r="F83">
-        <v>10.4158</v>
+        <v>6.07578</v>
       </c>
       <c r="G83">
-        <v>17.7896</v>
+        <v>2.72769</v>
       </c>
       <c r="H83">
-        <v>21.6902</v>
+        <v>0.85826</v>
       </c>
       <c r="I83">
-        <v>7.64387</v>
+        <v>1.83605</v>
       </c>
       <c r="J83">
-        <v>2.26912</v>
+        <v>0.322344</v>
       </c>
       <c r="K83">
-        <v>2.31844</v>
+        <v>0.270127</v>
       </c>
       <c r="L83">
-        <v>53.23</v>
+        <v>0</v>
       </c>
       <c r="M83">
-        <v>41.5274</v>
+        <v>0.0655186</v>
       </c>
       <c r="N83">
-        <v>175.457</v>
+        <v>0.0469369</v>
       </c>
       <c r="O83">
-        <v>186.776</v>
+        <v>0</v>
       </c>
       <c r="P83">
-        <v>30.1242</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>93.1354</v>
+        <v>0.116258</v>
       </c>
       <c r="R83">
-        <v>6.85598</v>
+        <v>0.0159201</v>
       </c>
       <c r="S83">
-        <v>12.8536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ENSMUSG00000061524</t>
+          <t>ENSMUSG00000027004</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Zic2</t>
+          <t>Frzb</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>chr14:122475434-122479852</t>
+          <t>chr2:80411969-80447625</t>
         </is>
       </c>
       <c r="D84">
-        <v>0.627912</v>
+        <v>10.2984</v>
       </c>
       <c r="E84">
-        <v>0.243232</v>
+        <v>6.47075</v>
       </c>
       <c r="F84">
-        <v>2.34712</v>
+        <v>12.1096</v>
       </c>
       <c r="G84">
-        <v>3.94689</v>
+        <v>14.5089</v>
       </c>
       <c r="H84">
-        <v>9.575760000000001</v>
+        <v>3.53055</v>
       </c>
       <c r="I84">
-        <v>1.72994</v>
+        <v>7.0464</v>
       </c>
       <c r="J84">
-        <v>0.637805</v>
+        <v>0.5295029999999999</v>
       </c>
       <c r="K84">
-        <v>0.647858</v>
+        <v>1.09363</v>
       </c>
       <c r="L84">
-        <v>9.722250000000001</v>
+        <v>13.8704</v>
       </c>
       <c r="M84">
-        <v>12.47</v>
+        <v>9.757999999999999</v>
       </c>
       <c r="N84">
-        <v>45.7334</v>
+        <v>56.8912</v>
       </c>
       <c r="O84">
-        <v>41.6562</v>
+        <v>55.2172</v>
       </c>
       <c r="P84">
-        <v>20.789</v>
+        <v>17.9788</v>
       </c>
       <c r="Q84">
-        <v>31.1767</v>
+        <v>39.1098</v>
       </c>
       <c r="R84">
-        <v>15.9902</v>
+        <v>1.25527</v>
       </c>
       <c r="S84">
-        <v>23.1224</v>
+        <v>4.7826</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029288</t>
+          <t>ENSMUSG00000018634</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ambn</t>
+          <t>Crhr1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>chr5:88455990-88468531</t>
+          <t>chr11:104132854-104175523</t>
         </is>
       </c>
       <c r="D85">
-        <v>0.108425</v>
+        <v>8.7539</v>
       </c>
       <c r="E85">
-        <v>0.09450359999999999</v>
+        <v>8.303190000000001</v>
       </c>
       <c r="F85">
-        <v>1.3273</v>
+        <v>21.7189</v>
       </c>
       <c r="G85">
-        <v>1.86992</v>
+        <v>22.4873</v>
       </c>
       <c r="H85">
-        <v>29.71</v>
+        <v>6.29846</v>
       </c>
       <c r="I85">
-        <v>7.19532</v>
+        <v>12.4749</v>
       </c>
       <c r="J85">
-        <v>90.64279999999999</v>
+        <v>2.57567</v>
       </c>
       <c r="K85">
-        <v>26.4026</v>
+        <v>4.01619</v>
       </c>
       <c r="L85">
-        <v>0.0461349</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
-        <v>0.075853</v>
+        <v>0.262866</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.122969</v>
       </c>
       <c r="P85">
-        <v>0.334421</v>
+        <v>0.110267</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>0.0497158</v>
       </c>
       <c r="R85">
-        <v>0.088686</v>
+        <v>0.0595128</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>0.0235466</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ENSMUSG00000051397</t>
+          <t>ENSMUSG00000018909</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tacstd2</t>
+          <t>Arrb1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>chr6:67534061-67535796</t>
+          <t>chr7:99535465-99606771</t>
         </is>
       </c>
       <c r="D86">
-        <v>4.02282</v>
+        <v>4.06973</v>
       </c>
       <c r="E86">
-        <v>2.93608</v>
+        <v>3.991</v>
       </c>
       <c r="F86">
-        <v>53.5381</v>
+        <v>12.2516</v>
       </c>
       <c r="G86">
-        <v>46.2125</v>
+        <v>15.8804</v>
       </c>
       <c r="H86">
-        <v>51.3039</v>
+        <v>10.743</v>
       </c>
       <c r="I86">
-        <v>56.9099</v>
+        <v>26.2001</v>
       </c>
       <c r="J86">
-        <v>82.7135</v>
+        <v>4.47508</v>
       </c>
       <c r="K86">
-        <v>63.9403</v>
+        <v>4.43379</v>
       </c>
       <c r="L86">
-        <v>0.0208745</v>
+        <v>9.38251</v>
       </c>
       <c r="M86">
-        <v>0.0289389</v>
+        <v>9.33844</v>
       </c>
       <c r="N86">
-        <v>0.599576</v>
+        <v>12.4841</v>
       </c>
       <c r="O86">
-        <v>0.244095</v>
+        <v>13.2174</v>
       </c>
       <c r="P86">
-        <v>0.848725</v>
+        <v>13.0108</v>
       </c>
       <c r="Q86">
-        <v>0.352452</v>
+        <v>14.959</v>
       </c>
       <c r="R86">
-        <v>0.063286</v>
+        <v>7.99336</v>
       </c>
       <c r="S86">
-        <v>0.033386</v>
+        <v>10.7867</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ENSMUSG00000033419</t>
+          <t>ENSMUSG00000032318</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Snap91</t>
+          <t>Isl2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>chr9:86765922-86880449</t>
+          <t>chr9:55538671-55546180</t>
         </is>
       </c>
       <c r="D87">
-        <v>13.2823</v>
+        <v>6.91972</v>
       </c>
       <c r="E87">
-        <v>13.6109</v>
+        <v>5.54882</v>
       </c>
       <c r="F87">
-        <v>13.8898</v>
+        <v>17.7472</v>
       </c>
       <c r="G87">
-        <v>21.2239</v>
+        <v>21.383</v>
       </c>
       <c r="H87">
-        <v>8.05382</v>
+        <v>3.75733</v>
       </c>
       <c r="I87">
-        <v>16.9662</v>
+        <v>14.0017</v>
       </c>
       <c r="J87">
-        <v>1.58966</v>
+        <v>2.42404</v>
       </c>
       <c r="K87">
-        <v>6.2934</v>
+        <v>6.08552</v>
       </c>
       <c r="L87">
-        <v>0.150684</v>
+        <v>0.0781386</v>
       </c>
       <c r="M87">
-        <v>0.426425</v>
+        <v>0.054163</v>
       </c>
       <c r="N87">
-        <v>0.142503</v>
+        <v>0.243797</v>
       </c>
       <c r="O87">
-        <v>0.254494</v>
+        <v>0.228428</v>
       </c>
       <c r="P87">
-        <v>0.384267</v>
+        <v>0.146309</v>
       </c>
       <c r="Q87">
-        <v>0.347436</v>
+        <v>0.09894890000000001</v>
       </c>
       <c r="R87">
-        <v>0.287419</v>
+        <v>0.0613098</v>
       </c>
       <c r="S87">
-        <v>0.425088</v>
+        <v>0.0909334</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ENSMUSG00000050473</t>
+          <t>ENSMUSG00000032085</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Slc35d3</t>
+          <t>Tagln</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>chr10:19847915-19851459</t>
+          <t>chr9:45929618-45936058</t>
         </is>
       </c>
       <c r="D88">
-        <v>1.55347</v>
+        <v>2.06637</v>
       </c>
       <c r="E88">
-        <v>1.09069</v>
+        <v>2.53388</v>
       </c>
       <c r="F88">
-        <v>5.78911</v>
+        <v>22.8711</v>
       </c>
       <c r="G88">
-        <v>3.00178</v>
+        <v>21.0467</v>
       </c>
       <c r="H88">
-        <v>0.0402597</v>
+        <v>18.4806</v>
       </c>
       <c r="I88">
-        <v>0.563907</v>
+        <v>25.5465</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>11.9936</v>
       </c>
       <c r="K88">
-        <v>0.0214662</v>
+        <v>15.3149</v>
       </c>
       <c r="L88">
-        <v>0.0963957</v>
+        <v>8.24593</v>
       </c>
       <c r="M88">
-        <v>0.229091</v>
+        <v>4.9915</v>
       </c>
       <c r="N88">
-        <v>0.310016</v>
+        <v>0.634576</v>
       </c>
       <c r="O88">
-        <v>0.483085</v>
+        <v>0.455177</v>
       </c>
       <c r="P88">
-        <v>0.162076</v>
+        <v>1.27883</v>
       </c>
       <c r="Q88">
-        <v>0.162758</v>
+        <v>0.7508550000000001</v>
       </c>
       <c r="R88">
-        <v>0.027833</v>
+        <v>1.93361</v>
       </c>
       <c r="S88">
-        <v>0.198221</v>
+        <v>0.870437</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021281</t>
+          <t>ENSMUSG00000022996</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tnfaip2</t>
+          <t>Wnt10b</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>chr12:111442468-111455018</t>
+          <t>chr15:98770711-98778150</t>
         </is>
       </c>
       <c r="D89">
-        <v>0.294162</v>
+        <v>1.92491</v>
       </c>
       <c r="E89">
-        <v>0.131466</v>
+        <v>2.39999</v>
       </c>
       <c r="F89">
-        <v>9.15249</v>
+        <v>21.4859</v>
       </c>
       <c r="G89">
-        <v>11.0497</v>
+        <v>34.999</v>
       </c>
       <c r="H89">
-        <v>6.05956</v>
+        <v>5.83278</v>
       </c>
       <c r="I89">
-        <v>12.0391</v>
+        <v>14.7234</v>
       </c>
       <c r="J89">
-        <v>12.2045</v>
+        <v>15.9383</v>
       </c>
       <c r="K89">
-        <v>14.0397</v>
+        <v>11.54</v>
       </c>
       <c r="L89">
-        <v>3.0509</v>
+        <v>0.0133692</v>
       </c>
       <c r="M89">
-        <v>1.93525</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>1.87263</v>
+        <v>0.168728</v>
       </c>
       <c r="O89">
-        <v>1.92022</v>
+        <v>0.226154</v>
       </c>
       <c r="P89">
-        <v>2.06947</v>
+        <v>0.128882</v>
       </c>
       <c r="Q89">
-        <v>2.11989</v>
+        <v>0.154136</v>
       </c>
       <c r="R89">
-        <v>1.90321</v>
+        <v>0.040532</v>
       </c>
       <c r="S89">
-        <v>1.93487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ENSMUSG00000050368</t>
+          <t>ENSMUSG00000051617</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hoxd10</t>
+          <t>Krt9</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>chr2:74691923-74695105</t>
+          <t>chr11:100186780-100193246</t>
         </is>
       </c>
       <c r="D90">
-        <v>2.81223</v>
+        <v>0.0659822</v>
       </c>
       <c r="E90">
-        <v>1.30724</v>
+        <v>0.0958474</v>
       </c>
       <c r="F90">
-        <v>4.80734</v>
+        <v>3.41084</v>
       </c>
       <c r="G90">
-        <v>6.4747</v>
+        <v>3.38548</v>
       </c>
       <c r="H90">
-        <v>10.1646</v>
+        <v>1.54584</v>
       </c>
       <c r="I90">
-        <v>1.69616</v>
+        <v>3.80276</v>
       </c>
       <c r="J90">
-        <v>0.6529239999999999</v>
+        <v>0.287236</v>
       </c>
       <c r="K90">
-        <v>0.932646</v>
+        <v>1.53176</v>
       </c>
       <c r="L90">
-        <v>38.2914</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>34.6708</v>
+        <v>0</v>
       </c>
       <c r="N90">
-        <v>50.9047</v>
+        <v>0.0108974</v>
       </c>
       <c r="O90">
-        <v>64.0321</v>
+        <v>0.0234499</v>
       </c>
       <c r="P90">
-        <v>28.4871</v>
+        <v>0.0300395</v>
       </c>
       <c r="Q90">
-        <v>50.375</v>
+        <v>0.0237017</v>
       </c>
       <c r="R90">
-        <v>11.9717</v>
+        <v>0</v>
       </c>
       <c r="S90">
-        <v>34.3529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028125</t>
+          <t>ENSMUSG00000024565</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Abca4</t>
+          <t>Sall3</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>chr3:122044442-122180061</t>
+          <t>chr18:80966375-80986578</t>
         </is>
       </c>
       <c r="D91">
-        <v>3.65643</v>
+        <v>2.64523</v>
       </c>
       <c r="E91">
-        <v>3.82695</v>
+        <v>2.09005</v>
       </c>
       <c r="F91">
-        <v>8.06798</v>
+        <v>8.266120000000001</v>
       </c>
       <c r="G91">
-        <v>9.60702</v>
+        <v>7.09031</v>
       </c>
       <c r="H91">
-        <v>1.50158</v>
+        <v>2.02971</v>
       </c>
       <c r="I91">
-        <v>4.25772</v>
+        <v>3.99273</v>
       </c>
       <c r="J91">
-        <v>1.27032</v>
+        <v>0.672623</v>
       </c>
       <c r="K91">
-        <v>1.59484</v>
+        <v>0.885458</v>
       </c>
       <c r="L91">
-        <v>0.292321</v>
+        <v>5.99063</v>
       </c>
       <c r="M91">
-        <v>0.377794</v>
+        <v>10.4487</v>
       </c>
       <c r="N91">
-        <v>0.667761</v>
+        <v>27.0823</v>
       </c>
       <c r="O91">
-        <v>0.917604</v>
+        <v>17.2558</v>
       </c>
       <c r="P91">
-        <v>1.10443</v>
+        <v>3.72541</v>
       </c>
       <c r="Q91">
-        <v>1.20281</v>
+        <v>5.78114</v>
       </c>
       <c r="R91">
-        <v>2.07115</v>
+        <v>1.24375</v>
       </c>
       <c r="S91">
-        <v>2.05052</v>
+        <v>1.43844</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ENSMUSG00000020205</t>
+          <t>ENSMUSG00000057777</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Phlda1</t>
+          <t>Mab21l2</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>chr10:111506285-111508645</t>
+          <t>chr3:86545580-86548283</t>
         </is>
       </c>
       <c r="D92">
-        <v>20.8753</v>
+        <v>1.543</v>
       </c>
       <c r="E92">
-        <v>17.4077</v>
+        <v>0.786778</v>
       </c>
       <c r="F92">
-        <v>36.1568</v>
+        <v>6.64046</v>
       </c>
       <c r="G92">
-        <v>23.5282</v>
+        <v>3.64571</v>
       </c>
       <c r="H92">
-        <v>6.12082</v>
+        <v>3.408</v>
       </c>
       <c r="I92">
-        <v>16.77</v>
+        <v>2.63787</v>
       </c>
       <c r="J92">
-        <v>5.05706</v>
+        <v>0.205624</v>
       </c>
       <c r="K92">
-        <v>4.31604</v>
+        <v>0.731027</v>
       </c>
       <c r="L92">
-        <v>8.67802</v>
+        <v>2.14383</v>
       </c>
       <c r="M92">
-        <v>7.0844</v>
+        <v>1.70893</v>
       </c>
       <c r="N92">
-        <v>7.61665</v>
+        <v>55.3568</v>
       </c>
       <c r="O92">
-        <v>6.39463</v>
+        <v>36.2601</v>
       </c>
       <c r="P92">
-        <v>3.08179</v>
+        <v>21.3037</v>
       </c>
       <c r="Q92">
-        <v>3.57678</v>
+        <v>32.3737</v>
       </c>
       <c r="R92">
-        <v>2.8732</v>
+        <v>9.627409999999999</v>
       </c>
       <c r="S92">
-        <v>2.7937</v>
+        <v>12.0221</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022449</t>
+          <t>ENSMUSG00000038156</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Adamts20</t>
+          <t>Spon1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>chr15:94270162-94404258</t>
+          <t>chr7:113765997-114043370</t>
         </is>
       </c>
       <c r="D93">
-        <v>1.37206</v>
+        <v>1.37093</v>
       </c>
       <c r="E93">
-        <v>2.70054</v>
+        <v>0.7203040000000001</v>
       </c>
       <c r="F93">
-        <v>3.97585</v>
+        <v>4.89132</v>
       </c>
       <c r="G93">
-        <v>9.233269999999999</v>
+        <v>4.78639</v>
       </c>
       <c r="H93">
-        <v>1.26779</v>
+        <v>0.6358819999999999</v>
       </c>
       <c r="I93">
-        <v>4.60572</v>
+        <v>1.898</v>
       </c>
       <c r="J93">
-        <v>0.948447</v>
+        <v>0.192454</v>
       </c>
       <c r="K93">
-        <v>2.476</v>
+        <v>0.329885</v>
       </c>
       <c r="L93">
-        <v>0.368169</v>
+        <v>0.378983</v>
       </c>
       <c r="M93">
-        <v>1.17968</v>
+        <v>0.32598</v>
       </c>
       <c r="N93">
-        <v>0.134738</v>
+        <v>0.303333</v>
       </c>
       <c r="O93">
-        <v>0.483232</v>
+        <v>0.189209</v>
       </c>
       <c r="P93">
-        <v>0.192892</v>
+        <v>0.201271</v>
       </c>
       <c r="Q93">
-        <v>0.479541</v>
+        <v>0.188583</v>
       </c>
       <c r="R93">
-        <v>0.228554</v>
+        <v>0.124754</v>
       </c>
       <c r="S93">
-        <v>0.454245</v>
+        <v>0.131626</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021974</t>
+          <t>ENSMUSG00000026042</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Fgf9</t>
+          <t>Col5a2</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>chr14:58070546-58112720</t>
+          <t>chr1:45374320-45503282</t>
         </is>
       </c>
       <c r="D94">
-        <v>2.95964</v>
+        <v>3.80296</v>
       </c>
       <c r="E94">
-        <v>2.59382</v>
+        <v>2.23211</v>
       </c>
       <c r="F94">
-        <v>15.0102</v>
+        <v>39.3218</v>
       </c>
       <c r="G94">
-        <v>21.6573</v>
+        <v>47.0322</v>
       </c>
       <c r="H94">
-        <v>12.6371</v>
+        <v>45.1288</v>
       </c>
       <c r="I94">
-        <v>15.8135</v>
+        <v>37.2039</v>
       </c>
       <c r="J94">
-        <v>11.6675</v>
+        <v>42.9932</v>
       </c>
       <c r="K94">
-        <v>14.0543</v>
+        <v>35.6888</v>
       </c>
       <c r="L94">
-        <v>0.0201599</v>
+        <v>10.7367</v>
       </c>
       <c r="M94">
-        <v>0.384371</v>
+        <v>8.889849999999999</v>
       </c>
       <c r="N94">
-        <v>0.0868326</v>
+        <v>29.6388</v>
       </c>
       <c r="O94">
-        <v>0.337612</v>
+        <v>25.3509</v>
       </c>
       <c r="P94">
-        <v>0.243259</v>
+        <v>38.8855</v>
       </c>
       <c r="Q94">
-        <v>0.401051</v>
+        <v>26.537</v>
       </c>
       <c r="R94">
-        <v>2.33162</v>
+        <v>91.327</v>
       </c>
       <c r="S94">
-        <v>0.553588</v>
+        <v>46.2436</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ENSMUSG00000020811</t>
+          <t>ENSMUSG00000078252</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Wscd1</t>
+          <t>Krtap17-1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>chr11:71749919-71789647</t>
+          <t>chr11:99993233-99993994</t>
         </is>
       </c>
       <c r="D95">
-        <v>0.9261819999999999</v>
+        <v>0.559244</v>
       </c>
       <c r="E95">
-        <v>1.38874</v>
+        <v>0.12998</v>
       </c>
       <c r="F95">
-        <v>6.05019</v>
+        <v>5.41475</v>
       </c>
       <c r="G95">
-        <v>3.45134</v>
+        <v>4.92954</v>
       </c>
       <c r="H95">
-        <v>0.531545</v>
+        <v>9.414910000000001</v>
       </c>
       <c r="I95">
-        <v>0.835919</v>
+        <v>11.4682</v>
       </c>
       <c r="J95">
-        <v>0.442671</v>
+        <v>2.92143</v>
       </c>
       <c r="K95">
-        <v>0.307156</v>
+        <v>3.19003</v>
       </c>
       <c r="L95">
-        <v>0.224548</v>
+        <v>0</v>
       </c>
       <c r="M95">
-        <v>0.244148</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>0.387512</v>
+        <v>0.110835</v>
       </c>
       <c r="O95">
-        <v>0.131661</v>
+        <v>0</v>
       </c>
       <c r="P95">
-        <v>0.819665</v>
+        <v>0.101842</v>
       </c>
       <c r="Q95">
-        <v>0.421415</v>
+        <v>0.0803553</v>
       </c>
       <c r="R95">
-        <v>0.769971</v>
+        <v>0.144285</v>
       </c>
       <c r="S95">
-        <v>0.588919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ENSMUSG00000007655</t>
+          <t>ENSMUSG00000009734</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cav1</t>
+          <t>Pou6f2</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>chr6:17306334-17341452</t>
+          <t>chr13:18121097-18382041</t>
         </is>
       </c>
       <c r="D96">
-        <v>0.672735</v>
+        <v>0.6670469999999999</v>
       </c>
       <c r="E96">
-        <v>0.133483</v>
+        <v>0.385782</v>
       </c>
       <c r="F96">
-        <v>0.13846</v>
+        <v>2.79831</v>
       </c>
       <c r="G96">
-        <v>0.30089</v>
+        <v>4.56254</v>
       </c>
       <c r="H96">
-        <v>1.94947</v>
+        <v>1.51247</v>
       </c>
       <c r="I96">
-        <v>1.01798</v>
+        <v>3.97648</v>
       </c>
       <c r="J96">
-        <v>7.78751</v>
+        <v>0.407613</v>
       </c>
       <c r="K96">
-        <v>4.55385</v>
+        <v>0.662417</v>
       </c>
       <c r="L96">
-        <v>2.99623</v>
+        <v>0.00605944</v>
       </c>
       <c r="M96">
-        <v>1.76659</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>3.80572</v>
+        <v>0.0376313</v>
       </c>
       <c r="O96">
-        <v>4.15442</v>
+        <v>0.0101222</v>
       </c>
       <c r="P96">
-        <v>9.87354</v>
+        <v>0.0453889</v>
       </c>
       <c r="Q96">
-        <v>6.09612</v>
+        <v>0.0306929</v>
       </c>
       <c r="R96">
-        <v>19.9844</v>
+        <v>0.0574696</v>
       </c>
       <c r="S96">
-        <v>11.6829</v>
+        <v>0.00969126</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ENSMUSG00000047261</t>
+          <t>ENSMUSG00000036103</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Gap43</t>
+          <t>Colec12</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>chr16:42248441-42340651</t>
+          <t>chr18:9707647-9877995</t>
         </is>
       </c>
       <c r="D97">
-        <v>13.4868</v>
+        <v>28.5944</v>
       </c>
       <c r="E97">
-        <v>13.1305</v>
+        <v>26.6045</v>
       </c>
       <c r="F97">
-        <v>20.3129</v>
+        <v>61.3264</v>
       </c>
       <c r="G97">
-        <v>9.81809</v>
+        <v>55.4345</v>
       </c>
       <c r="H97">
-        <v>4.34965</v>
+        <v>20.5476</v>
       </c>
       <c r="I97">
-        <v>3.01275</v>
+        <v>34.2214</v>
       </c>
       <c r="J97">
-        <v>0.678443</v>
+        <v>7.96392</v>
       </c>
       <c r="K97">
-        <v>0.636126</v>
+        <v>13.2898</v>
       </c>
       <c r="L97">
-        <v>36.4468</v>
+        <v>9.85563</v>
       </c>
       <c r="M97">
-        <v>37.7275</v>
+        <v>13.2248</v>
       </c>
       <c r="N97">
-        <v>28.3132</v>
+        <v>3.19068</v>
       </c>
       <c r="O97">
-        <v>20.4935</v>
+        <v>3.05964</v>
       </c>
       <c r="P97">
-        <v>14.1359</v>
+        <v>3.83777</v>
       </c>
       <c r="Q97">
-        <v>11.8425</v>
+        <v>4.12333</v>
       </c>
       <c r="R97">
-        <v>10.31</v>
+        <v>11.2159</v>
       </c>
       <c r="S97">
-        <v>6.60831</v>
+        <v>5.05664</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ENSMUSG00000067586</t>
+          <t>ENSMUSG00000074934</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>S1pr3</t>
+          <t>Grem1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>chr13:51408638-51422797</t>
+          <t>chr2:113746163-113758646</t>
         </is>
       </c>
       <c r="D98">
-        <v>14.8759</v>
+        <v>0.513</v>
       </c>
       <c r="E98">
-        <v>10.3502</v>
+        <v>0.8942369999999999</v>
       </c>
       <c r="F98">
-        <v>17.9962</v>
+        <v>3.63685</v>
       </c>
       <c r="G98">
-        <v>16.6354</v>
+        <v>1.93025</v>
       </c>
       <c r="H98">
-        <v>12.9536</v>
+        <v>0.850876</v>
       </c>
       <c r="I98">
-        <v>12.7298</v>
+        <v>4.8818</v>
       </c>
       <c r="J98">
-        <v>2.73978</v>
+        <v>0.0357314</v>
       </c>
       <c r="K98">
-        <v>4.04794</v>
+        <v>0.108884</v>
       </c>
       <c r="L98">
-        <v>13.3735</v>
+        <v>4.81965</v>
       </c>
       <c r="M98">
-        <v>13.1288</v>
+        <v>6.29429</v>
       </c>
       <c r="N98">
-        <v>11.1692</v>
+        <v>12.1733</v>
       </c>
       <c r="O98">
-        <v>10.7499</v>
+        <v>11.2892</v>
       </c>
       <c r="P98">
-        <v>28.0192</v>
+        <v>2.92408</v>
       </c>
       <c r="Q98">
-        <v>19.4837</v>
+        <v>13.666</v>
       </c>
       <c r="R98">
-        <v>59.1199</v>
+        <v>0.441181</v>
       </c>
       <c r="S98">
-        <v>41.5713</v>
+        <v>1.27077</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039405</t>
+          <t>ENSMUSG00000042988</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Prss23</t>
+          <t>Notum</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>chr7:89507782-89527187</t>
+          <t>chr11:120653787-120661175</t>
         </is>
       </c>
       <c r="D99">
-        <v>8.673629999999999</v>
+        <v>16.7981</v>
       </c>
       <c r="E99">
-        <v>8.42596</v>
+        <v>18.9966</v>
       </c>
       <c r="F99">
-        <v>5.5823</v>
+        <v>63.0288</v>
       </c>
       <c r="G99">
-        <v>5.71498</v>
+        <v>57.3699</v>
       </c>
       <c r="H99">
-        <v>5.88804</v>
+        <v>15.3367</v>
       </c>
       <c r="I99">
-        <v>7.46968</v>
+        <v>28.5526</v>
       </c>
       <c r="J99">
-        <v>31.4129</v>
+        <v>15.6549</v>
       </c>
       <c r="K99">
-        <v>19.2275</v>
+        <v>11.2272</v>
       </c>
       <c r="L99">
-        <v>0.773019</v>
+        <v>2.99173</v>
       </c>
       <c r="M99">
-        <v>0.699868</v>
+        <v>4.19788</v>
       </c>
       <c r="N99">
-        <v>0.176441</v>
+        <v>4.27783</v>
       </c>
       <c r="O99">
-        <v>0.584919</v>
+        <v>4.3738</v>
       </c>
       <c r="P99">
-        <v>0.497891</v>
+        <v>3.98947</v>
       </c>
       <c r="Q99">
-        <v>0.379044</v>
+        <v>2.98457</v>
       </c>
       <c r="R99">
-        <v>1.54588</v>
+        <v>3.17404</v>
       </c>
       <c r="S99">
-        <v>0.423844</v>
+        <v>4.52327</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ENSMUSG00000000739</t>
+          <t>ENSMUSG00000042607</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Sult5a1</t>
+          <t>Asb4</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>chr8:123140191-123158270</t>
+          <t>chr6:5383385-5433022</t>
         </is>
       </c>
       <c r="D100">
-        <v>2.1615</v>
+        <v>23.7054</v>
       </c>
       <c r="E100">
-        <v>0.420834</v>
+        <v>21.9741</v>
       </c>
       <c r="F100">
-        <v>0.637849</v>
+        <v>17.4596</v>
       </c>
       <c r="G100">
-        <v>2.14087</v>
+        <v>29.2858</v>
       </c>
       <c r="H100">
-        <v>6.79704</v>
+        <v>31.3117</v>
       </c>
       <c r="I100">
-        <v>4.37266</v>
+        <v>9.49578</v>
       </c>
       <c r="J100">
-        <v>24.2901</v>
+        <v>1.06369</v>
       </c>
       <c r="K100">
-        <v>12.1336</v>
+        <v>1.87198</v>
       </c>
       <c r="L100">
-        <v>0.488405</v>
+        <v>155.561</v>
       </c>
       <c r="M100">
-        <v>0.62113</v>
+        <v>160.526</v>
       </c>
       <c r="N100">
-        <v>0.25717</v>
+        <v>300.696</v>
       </c>
       <c r="O100">
-        <v>0.624042</v>
+        <v>231.324</v>
       </c>
       <c r="P100">
-        <v>0.653806</v>
+        <v>101.947</v>
       </c>
       <c r="Q100">
-        <v>0.611043</v>
+        <v>142.754</v>
       </c>
       <c r="R100">
-        <v>1.81736</v>
+        <v>29.7138</v>
       </c>
       <c r="S100">
-        <v>1.2192</v>
+        <v>56.6617</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ENSMUSG00000026043</t>
+          <t>ENSMUSG00000049382</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Col3a1</t>
+          <t>Krt8</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>chr1:45311537-45349706</t>
+          <t>chr15:101996697-102004482</t>
         </is>
       </c>
       <c r="D101">
-        <v>31.7277</v>
+        <v>73.42319999999999</v>
       </c>
       <c r="E101">
-        <v>13.5126</v>
+        <v>54.5848</v>
       </c>
       <c r="F101">
-        <v>12.8311</v>
+        <v>121.598</v>
       </c>
       <c r="G101">
-        <v>6.01536</v>
+        <v>79.8396</v>
       </c>
       <c r="H101">
-        <v>50.9835</v>
+        <v>33.2755</v>
       </c>
       <c r="I101">
-        <v>5.24944</v>
+        <v>73.006</v>
       </c>
       <c r="J101">
-        <v>28.3325</v>
+        <v>13.2469</v>
       </c>
       <c r="K101">
-        <v>14.4838</v>
+        <v>17.7615</v>
       </c>
       <c r="L101">
-        <v>131.998</v>
+        <v>2.57109</v>
       </c>
       <c r="M101">
-        <v>93.10899999999999</v>
+        <v>3.25667</v>
       </c>
       <c r="N101">
-        <v>87.71080000000001</v>
+        <v>2.19695</v>
       </c>
       <c r="O101">
-        <v>61.4416</v>
+        <v>0.617984</v>
       </c>
       <c r="P101">
-        <v>93.24509999999999</v>
+        <v>1.30621</v>
       </c>
       <c r="Q101">
-        <v>58.8608</v>
+        <v>0.999394</v>
       </c>
       <c r="R101">
-        <v>258.488</v>
+        <v>0.766402</v>
       </c>
       <c r="S101">
-        <v>96.1403</v>
+        <v>0.41417</v>
       </c>
     </row>
   </sheetData>
